--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>12375.58654333487</v>
+        <v>12992.05940188399</v>
       </c>
       <c r="AB2" t="n">
-        <v>16932.82348093724</v>
+        <v>17776.30884286725</v>
       </c>
       <c r="AC2" t="n">
-        <v>15316.77857328297</v>
+        <v>16079.76287610949</v>
       </c>
       <c r="AD2" t="n">
-        <v>12375586.54333487</v>
+        <v>12992059.40188399</v>
       </c>
       <c r="AE2" t="n">
-        <v>16932823.48093724</v>
+        <v>17776308.84286725</v>
       </c>
       <c r="AF2" t="n">
         <v>1.284870992988855e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>123</v>
+        <v>122.1541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>15316778.57328296</v>
+        <v>16079762.87610949</v>
       </c>
     </row>
     <row r="3">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4251.155063593892</v>
+        <v>4574.040614870121</v>
       </c>
       <c r="AB3" t="n">
-        <v>5816.617905734448</v>
+        <v>6258.404161695792</v>
       </c>
       <c r="AC3" t="n">
-        <v>5261.488056485435</v>
+        <v>5661.110852228717</v>
       </c>
       <c r="AD3" t="n">
-        <v>4251155.063593892</v>
+        <v>4574040.614870122</v>
       </c>
       <c r="AE3" t="n">
-        <v>5816617.905734448</v>
+        <v>6258404.161695792</v>
       </c>
       <c r="AF3" t="n">
         <v>2.437525709654318e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>65</v>
+        <v>64.3875</v>
       </c>
       <c r="AH3" t="n">
-        <v>5261488.056485435</v>
+        <v>5661110.852228717</v>
       </c>
     </row>
     <row r="4">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3294.712577112505</v>
+        <v>3568.757007263478</v>
       </c>
       <c r="AB4" t="n">
-        <v>4507.971100466028</v>
+        <v>4882.9307797856</v>
       </c>
       <c r="AC4" t="n">
-        <v>4077.736665614555</v>
+        <v>4416.910719399069</v>
       </c>
       <c r="AD4" t="n">
-        <v>3294712.577112505</v>
+        <v>3568757.007263478</v>
       </c>
       <c r="AE4" t="n">
-        <v>4507971.100466028</v>
+        <v>4882930.7797856</v>
       </c>
       <c r="AF4" t="n">
         <v>2.865816040650603e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>55</v>
+        <v>54.76666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>4077736.665614556</v>
+        <v>4416910.719399069</v>
       </c>
     </row>
     <row r="5">
@@ -6920,28 +6920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2923.106650531171</v>
+        <v>3177.574038141447</v>
       </c>
       <c r="AB5" t="n">
-        <v>3999.523477620974</v>
+        <v>4347.696983658202</v>
       </c>
       <c r="AC5" t="n">
-        <v>3617.814570283133</v>
+        <v>3932.75888556874</v>
       </c>
       <c r="AD5" t="n">
-        <v>2923106.65053117</v>
+        <v>3177574.038141447</v>
       </c>
       <c r="AE5" t="n">
-        <v>3999523.477620974</v>
+        <v>4347696.983658202</v>
       </c>
       <c r="AF5" t="n">
         <v>3.094840245791976e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>51</v>
+        <v>50.71666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3617814.570283133</v>
+        <v>3932758.88556874</v>
       </c>
     </row>
     <row r="6">
@@ -7026,28 +7026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2725.240852488635</v>
+        <v>2969.818233602078</v>
       </c>
       <c r="AB6" t="n">
-        <v>3728.794763516228</v>
+        <v>4063.436326348195</v>
       </c>
       <c r="AC6" t="n">
-        <v>3372.923824682418</v>
+        <v>3675.627666430073</v>
       </c>
       <c r="AD6" t="n">
-        <v>2725240.852488635</v>
+        <v>2969818.233602078</v>
       </c>
       <c r="AE6" t="n">
-        <v>3728794.763516228</v>
+        <v>4063436.326348195</v>
       </c>
       <c r="AF6" t="n">
         <v>3.236850320361545e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>49</v>
+        <v>48.49166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3372923.824682418</v>
+        <v>3675627.666430073</v>
       </c>
     </row>
     <row r="7">
@@ -7132,28 +7132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2601.503038067917</v>
+        <v>2836.326063329793</v>
       </c>
       <c r="AB7" t="n">
-        <v>3559.491226898693</v>
+        <v>3880.786449722736</v>
       </c>
       <c r="AC7" t="n">
-        <v>3219.778379980661</v>
+        <v>3510.409637679041</v>
       </c>
       <c r="AD7" t="n">
-        <v>2601503.038067917</v>
+        <v>2836326.063329793</v>
       </c>
       <c r="AE7" t="n">
-        <v>3559491.226898693</v>
+        <v>3880786.449722736</v>
       </c>
       <c r="AF7" t="n">
         <v>3.334788302823316e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>48</v>
+        <v>47.0625</v>
       </c>
       <c r="AH7" t="n">
-        <v>3219778.379980661</v>
+        <v>3510409.637679041</v>
       </c>
     </row>
     <row r="8">
@@ -7238,28 +7238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2513.337557049861</v>
+        <v>2738.406226460169</v>
       </c>
       <c r="AB8" t="n">
-        <v>3438.859326183272</v>
+        <v>3746.80820899939</v>
       </c>
       <c r="AC8" t="n">
-        <v>3110.659418561588</v>
+        <v>3389.218092210695</v>
       </c>
       <c r="AD8" t="n">
-        <v>2513337.557049861</v>
+        <v>2738406.226460169</v>
       </c>
       <c r="AE8" t="n">
-        <v>3438859.326183272</v>
+        <v>3746808.20899939</v>
       </c>
       <c r="AF8" t="n">
         <v>3.404851628738276e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>47</v>
+        <v>46.09583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>3110659.418561588</v>
+        <v>3389218.092210696</v>
       </c>
     </row>
     <row r="9">
@@ -7344,28 +7344,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2444.857052211379</v>
+        <v>2669.891556202906</v>
       </c>
       <c r="AB9" t="n">
-        <v>3345.161278316604</v>
+        <v>3653.063414499474</v>
       </c>
       <c r="AC9" t="n">
-        <v>3025.903780877281</v>
+        <v>3304.42016932621</v>
       </c>
       <c r="AD9" t="n">
-        <v>2444857.052211379</v>
+        <v>2669891.556202906</v>
       </c>
       <c r="AE9" t="n">
-        <v>3345161.278316604</v>
+        <v>3653063.414499474</v>
       </c>
       <c r="AF9" t="n">
         <v>3.457587465448461e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.39583333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>3025903.780877281</v>
+        <v>3304420.16932621</v>
       </c>
     </row>
     <row r="10">
@@ -7450,28 +7450,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2385.186385906523</v>
+        <v>2610.288209705755</v>
       </c>
       <c r="AB10" t="n">
-        <v>3263.517240194289</v>
+        <v>3571.511486308001</v>
       </c>
       <c r="AC10" t="n">
-        <v>2952.051735165237</v>
+        <v>3230.651442702484</v>
       </c>
       <c r="AD10" t="n">
-        <v>2385186.385906524</v>
+        <v>2610288.209705755</v>
       </c>
       <c r="AE10" t="n">
-        <v>3263517.240194289</v>
+        <v>3571511.486308001</v>
       </c>
       <c r="AF10" t="n">
         <v>3.502412926652117e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.8125</v>
       </c>
       <c r="AH10" t="n">
-        <v>2952051.735165237</v>
+        <v>3230651.442702484</v>
       </c>
     </row>
     <row r="11">
@@ -7556,28 +7556,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2349.012143462143</v>
+        <v>2574.012482034889</v>
       </c>
       <c r="AB11" t="n">
-        <v>3214.022045786941</v>
+        <v>3521.877435336564</v>
       </c>
       <c r="AC11" t="n">
-        <v>2907.280292645187</v>
+        <v>3185.754395893934</v>
       </c>
       <c r="AD11" t="n">
-        <v>2349012.143462143</v>
+        <v>2574012.482034889</v>
       </c>
       <c r="AE11" t="n">
-        <v>3214022.045786941</v>
+        <v>3521877.435336564</v>
       </c>
       <c r="AF11" t="n">
         <v>3.534431113226158e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.40833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2907280.292645187</v>
+        <v>3185754.395893934</v>
       </c>
     </row>
     <row r="12">
@@ -7662,28 +7662,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2314.63914617263</v>
+        <v>2529.919294312589</v>
       </c>
       <c r="AB12" t="n">
-        <v>3166.991394465811</v>
+        <v>3461.547190640757</v>
       </c>
       <c r="AC12" t="n">
-        <v>2864.738180678213</v>
+        <v>3131.181985077867</v>
       </c>
       <c r="AD12" t="n">
-        <v>2314639.14617263</v>
+        <v>2529919.294312589</v>
       </c>
       <c r="AE12" t="n">
-        <v>3166991.394465811</v>
+        <v>3461547.190640757</v>
       </c>
       <c r="AF12" t="n">
         <v>3.563812507964689e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>45</v>
+        <v>44.0375</v>
       </c>
       <c r="AH12" t="n">
-        <v>2864738.180678213</v>
+        <v>3131181.985077867</v>
       </c>
     </row>
     <row r="13">
@@ -7768,28 +7768,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2277.102416438962</v>
+        <v>2502.170074819412</v>
       </c>
       <c r="AB13" t="n">
-        <v>3115.631984840562</v>
+        <v>3423.579484321026</v>
       </c>
       <c r="AC13" t="n">
-        <v>2818.280441024216</v>
+        <v>3096.837863361283</v>
       </c>
       <c r="AD13" t="n">
-        <v>2277102.416438962</v>
+        <v>2502170.074819412</v>
       </c>
       <c r="AE13" t="n">
-        <v>3115631.984840563</v>
+        <v>3423579.484321026</v>
       </c>
       <c r="AF13" t="n">
         <v>3.586790265388413e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.75833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2818280.441024215</v>
+        <v>3096837.863361283</v>
       </c>
     </row>
     <row r="14">
@@ -7874,28 +7874,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2250.833397919621</v>
+        <v>2466.180865867284</v>
       </c>
       <c r="AB14" t="n">
-        <v>3079.689554795092</v>
+        <v>3374.337460900879</v>
       </c>
       <c r="AC14" t="n">
-        <v>2785.768306056769</v>
+        <v>3052.295429544743</v>
       </c>
       <c r="AD14" t="n">
-        <v>2250833.397919621</v>
+        <v>2466180.865867285</v>
       </c>
       <c r="AE14" t="n">
-        <v>3079689.554795092</v>
+        <v>3374337.460900879</v>
       </c>
       <c r="AF14" t="n">
         <v>3.607507915524556e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>44</v>
+        <v>43.50833333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2785768.306056769</v>
+        <v>3052295.429544743</v>
       </c>
     </row>
     <row r="15">
@@ -7980,28 +7980,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2230.769055601176</v>
+        <v>2446.015038322354</v>
       </c>
       <c r="AB15" t="n">
-        <v>3052.236636458684</v>
+        <v>3346.745686000382</v>
       </c>
       <c r="AC15" t="n">
-        <v>2760.935455715976</v>
+        <v>3027.336974915451</v>
       </c>
       <c r="AD15" t="n">
-        <v>2230769.055601176</v>
+        <v>2446015.038322355</v>
       </c>
       <c r="AE15" t="n">
-        <v>3052236.636458684</v>
+        <v>3346745.686000382</v>
       </c>
       <c r="AF15" t="n">
         <v>3.621821928345892e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>44</v>
+        <v>43.33750000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>2760935.455715976</v>
+        <v>3027336.974915451</v>
       </c>
     </row>
     <row r="16">
@@ -8086,28 +8086,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2206.116978662737</v>
+        <v>2421.362961383917</v>
       </c>
       <c r="AB16" t="n">
-        <v>3018.506577218633</v>
+        <v>3313.015626760332</v>
       </c>
       <c r="AC16" t="n">
-        <v>2730.424545989361</v>
+        <v>2996.826065188836</v>
       </c>
       <c r="AD16" t="n">
-        <v>2206116.978662738</v>
+        <v>2421362.961383916</v>
       </c>
       <c r="AE16" t="n">
-        <v>3018506.577218633</v>
+        <v>3313015.626760332</v>
       </c>
       <c r="AF16" t="n">
         <v>3.639902786646527e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>44</v>
+        <v>43.11666666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>2730424.545989362</v>
+        <v>2996826.065188836</v>
       </c>
     </row>
     <row r="17">
@@ -8192,28 +8192,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2177.590465728867</v>
+        <v>2402.62395869054</v>
       </c>
       <c r="AB17" t="n">
-        <v>2979.475343721409</v>
+        <v>3287.3760965688</v>
       </c>
       <c r="AC17" t="n">
-        <v>2695.118398636545</v>
+        <v>2973.633535773478</v>
       </c>
       <c r="AD17" t="n">
-        <v>2177590.465728867</v>
+        <v>2402623.95869054</v>
       </c>
       <c r="AE17" t="n">
-        <v>2979475.343721408</v>
+        <v>3287376.0965688</v>
       </c>
       <c r="AF17" t="n">
         <v>3.651956692180284e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>43</v>
+        <v>42.975</v>
       </c>
       <c r="AH17" t="n">
-        <v>2695118.398636546</v>
+        <v>2973633.535773478</v>
       </c>
     </row>
     <row r="18">
@@ -8298,28 +8298,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2158.111092460347</v>
+        <v>2373.424394989233</v>
       </c>
       <c r="AB18" t="n">
-        <v>2952.822805846122</v>
+        <v>3247.423965318835</v>
       </c>
       <c r="AC18" t="n">
-        <v>2671.009541569005</v>
+        <v>2937.494379856844</v>
       </c>
       <c r="AD18" t="n">
-        <v>2158111.092460347</v>
+        <v>2373424.394989233</v>
       </c>
       <c r="AE18" t="n">
-        <v>2952822.805846122</v>
+        <v>3247423.965318835</v>
       </c>
       <c r="AF18" t="n">
         <v>3.6647639668099e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>43</v>
+        <v>42.82916666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>2671009.541569005</v>
+        <v>2937494.379856844</v>
       </c>
     </row>
     <row r="19">
@@ -8404,28 +8404,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2142.040109773817</v>
+        <v>2357.353412302703</v>
       </c>
       <c r="AB19" t="n">
-        <v>2930.833778332695</v>
+        <v>3225.434937805406</v>
       </c>
       <c r="AC19" t="n">
-        <v>2651.119115979664</v>
+        <v>2917.603954267503</v>
       </c>
       <c r="AD19" t="n">
-        <v>2142040.109773817</v>
+        <v>2357353.412302703</v>
       </c>
       <c r="AE19" t="n">
-        <v>2930833.778332695</v>
+        <v>3225434.937805406</v>
       </c>
       <c r="AF19" t="n">
         <v>3.673804395960217e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>43</v>
+        <v>42.72083333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>2651119.115979664</v>
+        <v>2917603.954267503</v>
       </c>
     </row>
     <row r="20">
@@ -8510,28 +8510,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2126.025703561238</v>
+        <v>2341.339006090123</v>
       </c>
       <c r="AB20" t="n">
-        <v>2908.922161246904</v>
+        <v>3203.523320719613</v>
       </c>
       <c r="AC20" t="n">
-        <v>2631.298712875394</v>
+        <v>2897.783551163232</v>
       </c>
       <c r="AD20" t="n">
-        <v>2126025.703561238</v>
+        <v>2341339.006090123</v>
       </c>
       <c r="AE20" t="n">
-        <v>2908922.161246904</v>
+        <v>3203523.320719613</v>
       </c>
       <c r="AF20" t="n">
         <v>3.681714771466745e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>43</v>
+        <v>42.62916666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>2631298.712875394</v>
+        <v>2897783.551163232</v>
       </c>
     </row>
     <row r="21">
@@ -8616,28 +8616,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2110.367787406824</v>
+        <v>2325.68108993571</v>
       </c>
       <c r="AB21" t="n">
-        <v>2887.498309585927</v>
+        <v>3182.099469058636</v>
       </c>
       <c r="AC21" t="n">
-        <v>2611.919523548376</v>
+        <v>2878.404361836215</v>
       </c>
       <c r="AD21" t="n">
-        <v>2110367.787406825</v>
+        <v>2325681.08993571</v>
       </c>
       <c r="AE21" t="n">
-        <v>2887498.309585927</v>
+        <v>3182099.469058636</v>
       </c>
       <c r="AF21" t="n">
         <v>3.691508569712922e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>43</v>
+        <v>42.52083333333334</v>
       </c>
       <c r="AH21" t="n">
-        <v>2611919.523548376</v>
+        <v>2878404.361836215</v>
       </c>
     </row>
     <row r="22">
@@ -8722,28 +8722,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2092.968575984399</v>
+        <v>2308.1803932868</v>
       </c>
       <c r="AB22" t="n">
-        <v>2863.691940918732</v>
+        <v>3158.15424382735</v>
       </c>
       <c r="AC22" t="n">
-        <v>2590.38520129433</v>
+        <v>2856.744435293668</v>
       </c>
       <c r="AD22" t="n">
-        <v>2092968.575984399</v>
+        <v>2308180.3932868</v>
       </c>
       <c r="AE22" t="n">
-        <v>2863691.940918732</v>
+        <v>3158154.24382735</v>
       </c>
       <c r="AF22" t="n">
         <v>3.700925683411169e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>43</v>
+        <v>42.40833333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>2590385.20129433</v>
+        <v>2856744.435293668</v>
       </c>
     </row>
     <row r="23">
@@ -8828,28 +8828,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>2080.243913359235</v>
+        <v>2295.455730661635</v>
       </c>
       <c r="AB23" t="n">
-        <v>2846.281496142486</v>
+        <v>3140.743799051103</v>
       </c>
       <c r="AC23" t="n">
-        <v>2574.636384931816</v>
+        <v>2840.995618931155</v>
       </c>
       <c r="AD23" t="n">
-        <v>2080243.913359235</v>
+        <v>2295455.730661635</v>
       </c>
       <c r="AE23" t="n">
-        <v>2846281.496142486</v>
+        <v>3140743.799051103</v>
       </c>
       <c r="AF23" t="n">
         <v>3.706199267082188e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>43</v>
+        <v>42.34583333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>2574636.384931816</v>
+        <v>2840995.618931155</v>
       </c>
     </row>
     <row r="24">
@@ -8934,28 +8934,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>2064.723850683174</v>
+        <v>2279.935667985574</v>
       </c>
       <c r="AB24" t="n">
-        <v>2825.046261692257</v>
+        <v>3119.508564600873</v>
       </c>
       <c r="AC24" t="n">
-        <v>2555.427811453679</v>
+        <v>2821.787045453017</v>
       </c>
       <c r="AD24" t="n">
-        <v>2064723.850683174</v>
+        <v>2279935.667985574</v>
       </c>
       <c r="AE24" t="n">
-        <v>2825046.261692257</v>
+        <v>3119508.564600873</v>
       </c>
       <c r="AF24" t="n">
         <v>3.712602904396996e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>43</v>
+        <v>42.275</v>
       </c>
       <c r="AH24" t="n">
-        <v>2555427.811453679</v>
+        <v>2821787.045453017</v>
       </c>
     </row>
     <row r="25">
@@ -9040,28 +9040,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>2051.156064445622</v>
+        <v>2256.647691315236</v>
       </c>
       <c r="AB25" t="n">
-        <v>2806.482217993555</v>
+        <v>3087.644927527494</v>
       </c>
       <c r="AC25" t="n">
-        <v>2538.635494030782</v>
+        <v>2792.964429181026</v>
       </c>
       <c r="AD25" t="n">
-        <v>2051156.064445622</v>
+        <v>2256647.691315236</v>
       </c>
       <c r="AE25" t="n">
-        <v>2806482.217993556</v>
+        <v>3087644.927527494</v>
       </c>
       <c r="AF25" t="n">
         <v>3.718253172615944e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>43</v>
+        <v>42.2125</v>
       </c>
       <c r="AH25" t="n">
-        <v>2538635.494030782</v>
+        <v>2792964.429181026</v>
       </c>
     </row>
     <row r="26">
@@ -9146,28 +9146,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>2047.232061738902</v>
+        <v>2252.723688608515</v>
       </c>
       <c r="AB26" t="n">
-        <v>2801.113224375439</v>
+        <v>3082.275933909377</v>
       </c>
       <c r="AC26" t="n">
-        <v>2533.778909628149</v>
+        <v>2788.107844778393</v>
       </c>
       <c r="AD26" t="n">
-        <v>2047232.061738902</v>
+        <v>2252723.688608515</v>
       </c>
       <c r="AE26" t="n">
-        <v>2801113.224375439</v>
+        <v>3082275.933909377</v>
       </c>
       <c r="AF26" t="n">
         <v>3.721266648999383e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>43</v>
+        <v>42.175</v>
       </c>
       <c r="AH26" t="n">
-        <v>2533778.909628149</v>
+        <v>2788107.844778393</v>
       </c>
     </row>
     <row r="27">
@@ -9252,28 +9252,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>2053.222506724037</v>
+        <v>2258.71413359365</v>
       </c>
       <c r="AB27" t="n">
-        <v>2809.309615483881</v>
+        <v>3090.472325017819</v>
       </c>
       <c r="AC27" t="n">
-        <v>2541.193048672908</v>
+        <v>2795.521983823153</v>
       </c>
       <c r="AD27" t="n">
-        <v>2053222.506724037</v>
+        <v>2258714.13359365</v>
       </c>
       <c r="AE27" t="n">
-        <v>2809309.615483881</v>
+        <v>3090472.32501782</v>
       </c>
       <c r="AF27" t="n">
         <v>3.720889964451454e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>43</v>
+        <v>42.17916666666667</v>
       </c>
       <c r="AH27" t="n">
-        <v>2541193.048672908</v>
+        <v>2795521.983823153</v>
       </c>
     </row>
   </sheetData>
@@ -9549,28 +9549,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7618.362100659217</v>
+        <v>8092.573358369249</v>
       </c>
       <c r="AB2" t="n">
-        <v>10423.77912453778</v>
+        <v>11072.61588806086</v>
       </c>
       <c r="AC2" t="n">
-        <v>9428.948274757389</v>
+        <v>10015.86096821792</v>
       </c>
       <c r="AD2" t="n">
-        <v>7618362.100659217</v>
+        <v>8092573.358369249</v>
       </c>
       <c r="AE2" t="n">
-        <v>10423779.12453778</v>
+        <v>11072615.88806086</v>
       </c>
       <c r="AF2" t="n">
         <v>1.787959808558439e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>97</v>
+        <v>96.05416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>9428948.274757389</v>
+        <v>10015860.96821792</v>
       </c>
     </row>
     <row r="3">
@@ -9655,28 +9655,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3396.200677809504</v>
+        <v>3696.195205206513</v>
       </c>
       <c r="AB3" t="n">
-        <v>4646.831597178677</v>
+        <v>5057.29734438777</v>
       </c>
       <c r="AC3" t="n">
-        <v>4203.344511412875</v>
+        <v>4574.635983800612</v>
       </c>
       <c r="AD3" t="n">
-        <v>3396200.677809504</v>
+        <v>3696195.205206513</v>
       </c>
       <c r="AE3" t="n">
-        <v>4646831.597178677</v>
+        <v>5057297.34438777</v>
       </c>
       <c r="AF3" t="n">
         <v>2.912338406471629e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.96666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4203344.511412876</v>
+        <v>4574635.983800612</v>
       </c>
     </row>
     <row r="4">
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2755.67994174232</v>
+        <v>3016.986437957678</v>
       </c>
       <c r="AB4" t="n">
-        <v>3770.442868310966</v>
+        <v>4127.973944461844</v>
       </c>
       <c r="AC4" t="n">
-        <v>3410.597092809026</v>
+        <v>3734.005904850068</v>
       </c>
       <c r="AD4" t="n">
-        <v>2755679.941742321</v>
+        <v>3016986.437957678</v>
       </c>
       <c r="AE4" t="n">
-        <v>3770442.868310966</v>
+        <v>4127973.944461844</v>
       </c>
       <c r="AF4" t="n">
         <v>3.322439837895245e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>3410597.092809026</v>
+        <v>3734005.904850069</v>
       </c>
     </row>
     <row r="5">
@@ -9867,28 +9867,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2494.07396509981</v>
+        <v>2736.053528433733</v>
       </c>
       <c r="AB5" t="n">
-        <v>3412.502029827514</v>
+        <v>3743.589143765908</v>
       </c>
       <c r="AC5" t="n">
-        <v>3086.817625577326</v>
+        <v>3386.306250045111</v>
       </c>
       <c r="AD5" t="n">
-        <v>2494073.96509981</v>
+        <v>2736053.528433733</v>
       </c>
       <c r="AE5" t="n">
-        <v>3412502.029827514</v>
+        <v>3743589.143765908</v>
       </c>
       <c r="AF5" t="n">
         <v>3.53552771733847e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.575</v>
       </c>
       <c r="AH5" t="n">
-        <v>3086817.625577326</v>
+        <v>3386306.250045111</v>
       </c>
     </row>
     <row r="6">
@@ -9973,28 +9973,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2342.130957995098</v>
+        <v>2574.429972178912</v>
       </c>
       <c r="AB6" t="n">
-        <v>3204.606904254452</v>
+        <v>3522.448663769982</v>
       </c>
       <c r="AC6" t="n">
-        <v>2898.763719006324</v>
+        <v>3186.271107087391</v>
       </c>
       <c r="AD6" t="n">
-        <v>2342130.957995098</v>
+        <v>2574429.972178912</v>
       </c>
       <c r="AE6" t="n">
-        <v>3204606.904254452</v>
+        <v>3522448.663769981</v>
       </c>
       <c r="AF6" t="n">
         <v>3.669480446195431e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.79999999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>2898763.719006324</v>
+        <v>3186271.10708739</v>
       </c>
     </row>
     <row r="7">
@@ -10079,28 +10079,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2245.877828627903</v>
+        <v>2478.142677392937</v>
       </c>
       <c r="AB7" t="n">
-        <v>3072.909126265876</v>
+        <v>3390.704139148158</v>
       </c>
       <c r="AC7" t="n">
-        <v>2779.634992109992</v>
+        <v>3067.100094990878</v>
       </c>
       <c r="AD7" t="n">
-        <v>2245877.828627903</v>
+        <v>2478142.677392937</v>
       </c>
       <c r="AE7" t="n">
-        <v>3072909.126265876</v>
+        <v>3390704.139148158</v>
       </c>
       <c r="AF7" t="n">
         <v>3.760156139575527e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.675</v>
       </c>
       <c r="AH7" t="n">
-        <v>2779634.992109992</v>
+        <v>3067100.094990877</v>
       </c>
     </row>
     <row r="8">
@@ -10185,28 +10185,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2174.445294142834</v>
+        <v>2406.67597748909</v>
       </c>
       <c r="AB8" t="n">
-        <v>2975.171981202221</v>
+        <v>3292.920247451428</v>
       </c>
       <c r="AC8" t="n">
-        <v>2691.225742996382</v>
+        <v>2978.648560677134</v>
       </c>
       <c r="AD8" t="n">
-        <v>2174445.294142834</v>
+        <v>2406675.97748909</v>
       </c>
       <c r="AE8" t="n">
-        <v>2975171.981202221</v>
+        <v>3292920.247451428</v>
       </c>
       <c r="AF8" t="n">
         <v>3.824865611669504e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.90000000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>2691225.742996382</v>
+        <v>2978648.560677134</v>
       </c>
     </row>
     <row r="9">
@@ -10291,28 +10291,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2127.518168152135</v>
+        <v>2350.035147959358</v>
       </c>
       <c r="AB9" t="n">
-        <v>2910.96421714306</v>
+        <v>3215.421765671805</v>
       </c>
       <c r="AC9" t="n">
-        <v>2633.145877822865</v>
+        <v>2908.546425228758</v>
       </c>
       <c r="AD9" t="n">
-        <v>2127518.168152135</v>
+        <v>2350035.147959358</v>
       </c>
       <c r="AE9" t="n">
-        <v>2910964.21714306</v>
+        <v>3215421.765671805</v>
       </c>
       <c r="AF9" t="n">
         <v>3.872676431815372e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.34583333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>2633145.877822865</v>
+        <v>2908546.425228758</v>
       </c>
     </row>
     <row r="10">
@@ -10397,28 +10397,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2075.374129303128</v>
+        <v>2297.958428918056</v>
       </c>
       <c r="AB10" t="n">
-        <v>2839.618442757212</v>
+        <v>3144.168101216793</v>
       </c>
       <c r="AC10" t="n">
-        <v>2568.609244009978</v>
+        <v>2844.09311050419</v>
       </c>
       <c r="AD10" t="n">
-        <v>2075374.129303128</v>
+        <v>2297958.428918056</v>
       </c>
       <c r="AE10" t="n">
-        <v>2839618.442757212</v>
+        <v>3144168.101216793</v>
       </c>
       <c r="AF10" t="n">
         <v>3.913480493836416e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.88333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2568609.244009978</v>
+        <v>2844093.11050419</v>
       </c>
     </row>
     <row r="11">
@@ -10503,28 +10503,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2042.60707983874</v>
+        <v>2255.579161141122</v>
       </c>
       <c r="AB11" t="n">
-        <v>2794.785120099837</v>
+        <v>3086.182917403046</v>
       </c>
       <c r="AC11" t="n">
-        <v>2528.05475074306</v>
+        <v>2791.641951250912</v>
       </c>
       <c r="AD11" t="n">
-        <v>2042607.07983874</v>
+        <v>2255579.161141122</v>
       </c>
       <c r="AE11" t="n">
-        <v>2794785.120099837</v>
+        <v>3086182.917403046</v>
       </c>
       <c r="AF11" t="n">
         <v>3.943568337548902e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.55</v>
       </c>
       <c r="AH11" t="n">
-        <v>2528054.75074306</v>
+        <v>2791641.951250912</v>
       </c>
     </row>
     <row r="12">
@@ -10609,28 +10609,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2011.880970708505</v>
+        <v>2224.751566784401</v>
       </c>
       <c r="AB12" t="n">
-        <v>2752.744302047584</v>
+        <v>3044.003242786702</v>
       </c>
       <c r="AC12" t="n">
-        <v>2490.026249361055</v>
+        <v>2753.487845580408</v>
       </c>
       <c r="AD12" t="n">
-        <v>2011880.970708505</v>
+        <v>2224751.566784401</v>
       </c>
       <c r="AE12" t="n">
-        <v>2752744.302047584</v>
+        <v>3044003.242786702</v>
       </c>
       <c r="AF12" t="n">
         <v>3.969946721077657e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.25833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2490026.249361055</v>
+        <v>2753487.845580408</v>
       </c>
     </row>
     <row r="13">
@@ -10715,28 +10715,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1986.075679926104</v>
+        <v>2198.946276002001</v>
       </c>
       <c r="AB13" t="n">
-        <v>2717.436364750022</v>
+        <v>3008.695305489137</v>
       </c>
       <c r="AC13" t="n">
-        <v>2458.088052044171</v>
+        <v>2721.549648263523</v>
       </c>
       <c r="AD13" t="n">
-        <v>1986075.679926104</v>
+        <v>2198946.276002001</v>
       </c>
       <c r="AE13" t="n">
-        <v>2717436.364750022</v>
+        <v>3008695.305489137</v>
       </c>
       <c r="AF13" t="n">
         <v>3.990554833209498e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.0375</v>
       </c>
       <c r="AH13" t="n">
-        <v>2458088.052044171</v>
+        <v>2721549.648263523</v>
       </c>
     </row>
     <row r="14">
@@ -10821,28 +10821,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1950.008939617718</v>
+        <v>2162.946855501316</v>
       </c>
       <c r="AB14" t="n">
-        <v>2668.088259507804</v>
+        <v>2959.439310177584</v>
       </c>
       <c r="AC14" t="n">
-        <v>2413.449660705769</v>
+        <v>2676.994576013394</v>
       </c>
       <c r="AD14" t="n">
-        <v>1950008.939617718</v>
+        <v>2162946.855501316</v>
       </c>
       <c r="AE14" t="n">
-        <v>2668088.259507804</v>
+        <v>2959439.310177584</v>
       </c>
       <c r="AF14" t="n">
         <v>4.009926458613428e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>43</v>
+        <v>42.825</v>
       </c>
       <c r="AH14" t="n">
-        <v>2413449.660705769</v>
+        <v>2676994.576013394</v>
       </c>
     </row>
     <row r="15">
@@ -10927,28 +10927,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1926.195827556359</v>
+        <v>2139.133743439957</v>
       </c>
       <c r="AB15" t="n">
-        <v>2635.506109025092</v>
+        <v>2926.857159694874</v>
       </c>
       <c r="AC15" t="n">
-        <v>2383.977104935793</v>
+        <v>2647.522020243418</v>
       </c>
       <c r="AD15" t="n">
-        <v>1926195.827556359</v>
+        <v>2139133.743439957</v>
       </c>
       <c r="AE15" t="n">
-        <v>2635506.109025092</v>
+        <v>2926857.159694874</v>
       </c>
       <c r="AF15" t="n">
         <v>4.025176461590989e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>43</v>
+        <v>42.66666666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>2383977.104935793</v>
+        <v>2647522.020243418</v>
       </c>
     </row>
     <row r="16">
@@ -11033,28 +11033,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1903.834519795813</v>
+        <v>2116.772435679411</v>
       </c>
       <c r="AB16" t="n">
-        <v>2604.910381235839</v>
+        <v>2896.26143190562</v>
       </c>
       <c r="AC16" t="n">
-        <v>2356.301390465372</v>
+        <v>2619.846305772997</v>
       </c>
       <c r="AD16" t="n">
-        <v>1903834.519795813</v>
+        <v>2116772.435679411</v>
       </c>
       <c r="AE16" t="n">
-        <v>2604910.381235839</v>
+        <v>2896261.43190562</v>
       </c>
       <c r="AF16" t="n">
         <v>4.03918997784064e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>43</v>
+        <v>42.51666666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>2356301.390465372</v>
+        <v>2619846.305772997</v>
       </c>
     </row>
     <row r="17">
@@ -11139,28 +11139,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1883.143208507511</v>
+        <v>2095.979639164623</v>
       </c>
       <c r="AB17" t="n">
-        <v>2576.599616294955</v>
+        <v>2867.811810400646</v>
       </c>
       <c r="AC17" t="n">
-        <v>2330.692565196038</v>
+        <v>2594.111876215164</v>
       </c>
       <c r="AD17" t="n">
-        <v>1883143.208507511</v>
+        <v>2095979.639164623</v>
       </c>
       <c r="AE17" t="n">
-        <v>2576599.616294955</v>
+        <v>2867811.810400646</v>
       </c>
       <c r="AF17" t="n">
         <v>4.051554845119744e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>43</v>
+        <v>42.3875</v>
       </c>
       <c r="AH17" t="n">
-        <v>2330692.565196038</v>
+        <v>2594111.876215164</v>
       </c>
     </row>
     <row r="18">
@@ -11245,28 +11245,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1864.343929440879</v>
+        <v>2077.180360097992</v>
       </c>
       <c r="AB18" t="n">
-        <v>2550.877613310331</v>
+        <v>2842.089807416022</v>
       </c>
       <c r="AC18" t="n">
-        <v>2307.425434075208</v>
+        <v>2570.844745094334</v>
       </c>
       <c r="AD18" t="n">
-        <v>1864343.929440879</v>
+        <v>2077180.360097991</v>
       </c>
       <c r="AE18" t="n">
-        <v>2550877.613310331</v>
+        <v>2842089.807416022</v>
       </c>
       <c r="AF18" t="n">
         <v>4.061858901185664e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>43</v>
+        <v>42.27916666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>2307425.434075208</v>
+        <v>2570844.745094334</v>
       </c>
     </row>
     <row r="19">
@@ -11351,28 +11351,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1865.229710573382</v>
+        <v>2078.066141230495</v>
       </c>
       <c r="AB19" t="n">
-        <v>2552.089578133728</v>
+        <v>2843.301772239419</v>
       </c>
       <c r="AC19" t="n">
-        <v>2308.521730676863</v>
+        <v>2571.941041695989</v>
       </c>
       <c r="AD19" t="n">
-        <v>1865229.710573382</v>
+        <v>2078066.141230495</v>
       </c>
       <c r="AE19" t="n">
-        <v>2552089.578133727</v>
+        <v>2843301.772239419</v>
       </c>
       <c r="AF19" t="n">
         <v>4.063095387913575e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>43</v>
+        <v>42.26666666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>2308521.730676863</v>
+        <v>2571941.041695989</v>
       </c>
     </row>
     <row r="20">
@@ -11457,28 +11457,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1871.412213358427</v>
+        <v>2084.24864401554</v>
       </c>
       <c r="AB20" t="n">
-        <v>2560.548751196999</v>
+        <v>2851.760945302689</v>
       </c>
       <c r="AC20" t="n">
-        <v>2316.1735721355</v>
+        <v>2579.592883154626</v>
       </c>
       <c r="AD20" t="n">
-        <v>1871412.213358427</v>
+        <v>2084248.64401554</v>
       </c>
       <c r="AE20" t="n">
-        <v>2560548.751196999</v>
+        <v>2851760.945302689</v>
       </c>
       <c r="AF20" t="n">
         <v>4.063507550156211e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>43</v>
+        <v>42.2625</v>
       </c>
       <c r="AH20" t="n">
-        <v>2316173.5721355</v>
+        <v>2579592.883154626</v>
       </c>
     </row>
   </sheetData>
@@ -11754,28 +11754,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2686.443023420037</v>
+        <v>2976.361472125074</v>
       </c>
       <c r="AB2" t="n">
-        <v>3675.709862145152</v>
+        <v>4072.38907396267</v>
       </c>
       <c r="AC2" t="n">
-        <v>3324.905271793072</v>
+        <v>3683.725976377481</v>
       </c>
       <c r="AD2" t="n">
-        <v>2686443.023420037</v>
+        <v>2976361.472125074</v>
       </c>
       <c r="AE2" t="n">
-        <v>3675709.862145152</v>
+        <v>4072389.07396267</v>
       </c>
       <c r="AF2" t="n">
         <v>3.920595447722724e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.1375</v>
       </c>
       <c r="AH2" t="n">
-        <v>3324905.271793072</v>
+        <v>3683725.976377482</v>
       </c>
     </row>
     <row r="3">
@@ -11860,28 +11860,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1829.307502264543</v>
+        <v>2063.160380338925</v>
       </c>
       <c r="AB3" t="n">
-        <v>2502.93922794959</v>
+        <v>2822.907052591813</v>
       </c>
       <c r="AC3" t="n">
-        <v>2264.06222093135</v>
+        <v>2553.492765467382</v>
       </c>
       <c r="AD3" t="n">
-        <v>1829307.502264543</v>
+        <v>2063160.380338925</v>
       </c>
       <c r="AE3" t="n">
-        <v>2502939.227949589</v>
+        <v>2822907.052591813</v>
       </c>
       <c r="AF3" t="n">
         <v>4.921023251624386e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.7125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2264062.22093135</v>
+        <v>2553492.765467382</v>
       </c>
     </row>
     <row r="4">
@@ -11966,28 +11966,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1619.081831281495</v>
+        <v>1843.54506219737</v>
       </c>
       <c r="AB4" t="n">
-        <v>2215.299190408542</v>
+        <v>2522.419685566499</v>
       </c>
       <c r="AC4" t="n">
-        <v>2003.874144867892</v>
+        <v>2281.683491014295</v>
       </c>
       <c r="AD4" t="n">
-        <v>1619081.831281495</v>
+        <v>1843545.06219737</v>
       </c>
       <c r="AE4" t="n">
-        <v>2215299.190408542</v>
+        <v>2522419.685566498</v>
       </c>
       <c r="AF4" t="n">
         <v>5.261019129776128e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.5625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2003874.144867892</v>
+        <v>2281683.491014295</v>
       </c>
     </row>
     <row r="5">
@@ -12072,28 +12072,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1511.968983047549</v>
+        <v>1717.722261513828</v>
       </c>
       <c r="AB5" t="n">
-        <v>2068.742665969501</v>
+        <v>2350.263378761073</v>
       </c>
       <c r="AC5" t="n">
-        <v>1871.304769427939</v>
+        <v>2125.957540507486</v>
       </c>
       <c r="AD5" t="n">
-        <v>1511968.983047549</v>
+        <v>1717722.261513828</v>
       </c>
       <c r="AE5" t="n">
-        <v>2068742.665969501</v>
+        <v>2350263.378761074</v>
       </c>
       <c r="AF5" t="n">
         <v>5.436482315624321e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.09166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1871304.769427939</v>
+        <v>2125957.540507486</v>
       </c>
     </row>
     <row r="6">
@@ -12178,28 +12178,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1440.228336341947</v>
+        <v>1645.947449389445</v>
       </c>
       <c r="AB6" t="n">
-        <v>1970.583948172937</v>
+        <v>2252.057914331262</v>
       </c>
       <c r="AC6" t="n">
-        <v>1782.514181891253</v>
+        <v>2037.12466777062</v>
       </c>
       <c r="AD6" t="n">
-        <v>1440228.336341947</v>
+        <v>1645947.449389445</v>
       </c>
       <c r="AE6" t="n">
-        <v>1970583.948172937</v>
+        <v>2252057.914331262</v>
       </c>
       <c r="AF6" t="n">
         <v>5.534856757526094e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.30833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1782514.181891253</v>
+        <v>2037124.66777062</v>
       </c>
     </row>
     <row r="7">
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1443.566206859022</v>
+        <v>1649.28531990652</v>
       </c>
       <c r="AB7" t="n">
-        <v>1975.150969870853</v>
+        <v>2256.624936029178</v>
       </c>
       <c r="AC7" t="n">
-        <v>1786.645333448175</v>
+        <v>2041.255819327542</v>
       </c>
       <c r="AD7" t="n">
-        <v>1443566.206859022</v>
+        <v>1649285.31990652</v>
       </c>
       <c r="AE7" t="n">
-        <v>1975150.969870853</v>
+        <v>2256624.936029178</v>
       </c>
       <c r="AF7" t="n">
         <v>5.539459070597522e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.27083333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1786645.333448175</v>
+        <v>2041255.819327542</v>
       </c>
     </row>
   </sheetData>
@@ -12581,28 +12581,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3874.771478657098</v>
+        <v>4225.524077154474</v>
       </c>
       <c r="AB2" t="n">
-        <v>5301.633279952041</v>
+        <v>5781.548459328716</v>
       </c>
       <c r="AC2" t="n">
-        <v>4795.65284060226</v>
+        <v>5229.765588824393</v>
       </c>
       <c r="AD2" t="n">
-        <v>3874771.478657098</v>
+        <v>4225524.077154474</v>
       </c>
       <c r="AE2" t="n">
-        <v>5301633.279952041</v>
+        <v>5781548.459328717</v>
       </c>
       <c r="AF2" t="n">
         <v>2.936888678909377e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>4795652.84060226</v>
+        <v>5229765.588824392</v>
       </c>
     </row>
     <row r="3">
@@ -12687,28 +12687,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2328.362186864093</v>
+        <v>2584.323249495462</v>
       </c>
       <c r="AB3" t="n">
-        <v>3185.767864157699</v>
+        <v>3535.985082255077</v>
       </c>
       <c r="AC3" t="n">
-        <v>2881.722650455647</v>
+        <v>3198.515628790752</v>
       </c>
       <c r="AD3" t="n">
-        <v>2328362.186864093</v>
+        <v>2584323.249495462</v>
       </c>
       <c r="AE3" t="n">
-        <v>3185767.8641577</v>
+        <v>3535985.082255078</v>
       </c>
       <c r="AF3" t="n">
         <v>3.993570763382114e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.97916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2881722.650455647</v>
+        <v>3198515.628790752</v>
       </c>
     </row>
     <row r="4">
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2007.157930550203</v>
+        <v>2244.153852924616</v>
       </c>
       <c r="AB4" t="n">
-        <v>2746.282030137169</v>
+        <v>3070.550306652199</v>
       </c>
       <c r="AC4" t="n">
-        <v>2484.180727611914</v>
+        <v>2777.501294929618</v>
       </c>
       <c r="AD4" t="n">
-        <v>2007157.930550203</v>
+        <v>2244153.852924616</v>
       </c>
       <c r="AE4" t="n">
-        <v>2746282.030137169</v>
+        <v>3070550.306652199</v>
       </c>
       <c r="AF4" t="n">
         <v>4.365726122694295e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.55</v>
       </c>
       <c r="AH4" t="n">
-        <v>2484180.727611914</v>
+        <v>2777501.294929618</v>
       </c>
     </row>
     <row r="5">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1857.982892749414</v>
+        <v>2085.496244995345</v>
       </c>
       <c r="AB5" t="n">
-        <v>2542.174162279935</v>
+        <v>2853.467968003531</v>
       </c>
       <c r="AC5" t="n">
-        <v>2299.552628195783</v>
+        <v>2581.136990004719</v>
       </c>
       <c r="AD5" t="n">
-        <v>1857982.892749414</v>
+        <v>2085496.244995345</v>
       </c>
       <c r="AE5" t="n">
-        <v>2542174.162279935</v>
+        <v>2853467.968003531</v>
       </c>
       <c r="AF5" t="n">
         <v>4.555042101996342e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.57083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2299552.628195783</v>
+        <v>2581136.990004719</v>
       </c>
     </row>
     <row r="6">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1768.670937442078</v>
+        <v>1986.634399751826</v>
       </c>
       <c r="AB6" t="n">
-        <v>2419.973604863053</v>
+        <v>2718.200829864553</v>
       </c>
       <c r="AC6" t="n">
-        <v>2189.014720469208</v>
+        <v>2458.779557681105</v>
       </c>
       <c r="AD6" t="n">
-        <v>1768670.937442078</v>
+        <v>1986634.399751826</v>
       </c>
       <c r="AE6" t="n">
-        <v>2419973.604863053</v>
+        <v>2718200.829864553</v>
       </c>
       <c r="AF6" t="n">
         <v>4.668133489632038e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.47083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2189014.720469208</v>
+        <v>2458779.557681105</v>
       </c>
     </row>
     <row r="7">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1699.371197189233</v>
+        <v>1917.401979306686</v>
       </c>
       <c r="AB7" t="n">
-        <v>2325.154642960343</v>
+        <v>2623.473977892686</v>
       </c>
       <c r="AC7" t="n">
-        <v>2103.245147211245</v>
+        <v>2373.093303511461</v>
       </c>
       <c r="AD7" t="n">
-        <v>1699371.197189233</v>
+        <v>1917401.979306686</v>
       </c>
       <c r="AE7" t="n">
-        <v>2325154.642960343</v>
+        <v>2623473.977892686</v>
       </c>
       <c r="AF7" t="n">
         <v>4.747347280971578e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.725</v>
       </c>
       <c r="AH7" t="n">
-        <v>2103245.147211245</v>
+        <v>2373093.303511461</v>
       </c>
     </row>
     <row r="8">
@@ -13217,28 +13217,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1650.224998811578</v>
+        <v>1858.740056411628</v>
       </c>
       <c r="AB8" t="n">
-        <v>2257.910646162786</v>
+        <v>2543.21014700628</v>
       </c>
       <c r="AC8" t="n">
-        <v>2042.418823090504</v>
+        <v>2300.48973999386</v>
       </c>
       <c r="AD8" t="n">
-        <v>1650224.998811578</v>
+        <v>1858740.056411628</v>
       </c>
       <c r="AE8" t="n">
-        <v>2257910.646162786</v>
+        <v>2543210.14700628</v>
       </c>
       <c r="AF8" t="n">
         <v>4.805138474653256e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.20000000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>2042418.823090504</v>
+        <v>2300489.73999386</v>
       </c>
     </row>
     <row r="9">
@@ -13323,28 +13323,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1598.673481739162</v>
+        <v>1807.255859146916</v>
       </c>
       <c r="AB9" t="n">
-        <v>2187.375586211884</v>
+        <v>2472.76719698622</v>
       </c>
       <c r="AC9" t="n">
-        <v>1978.615530264738</v>
+        <v>2236.769766256412</v>
       </c>
       <c r="AD9" t="n">
-        <v>1598673.481739162</v>
+        <v>1807255.859146916</v>
       </c>
       <c r="AE9" t="n">
-        <v>2187375.586211884</v>
+        <v>2472767.19698622</v>
       </c>
       <c r="AF9" t="n">
         <v>4.848980069860046e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>43</v>
+        <v>42.80833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1978615.530264738</v>
+        <v>2236769.766256412</v>
       </c>
     </row>
     <row r="10">
@@ -13429,28 +13429,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1589.115259578805</v>
+        <v>1797.69763698656</v>
       </c>
       <c r="AB10" t="n">
-        <v>2174.297604973082</v>
+        <v>2459.689215747419</v>
       </c>
       <c r="AC10" t="n">
-        <v>1966.785693200306</v>
+        <v>2224.93992919198</v>
       </c>
       <c r="AD10" t="n">
-        <v>1589115.259578805</v>
+        <v>1797697.63698656</v>
       </c>
       <c r="AE10" t="n">
-        <v>2174297.604973082</v>
+        <v>2459689.215747419</v>
       </c>
       <c r="AF10" t="n">
         <v>4.858445868825147e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>43</v>
+        <v>42.72916666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1966785.693200306</v>
+        <v>2224939.929191981</v>
       </c>
     </row>
     <row r="11">
@@ -13535,28 +13535,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1595.853840848462</v>
+        <v>1804.436218256217</v>
       </c>
       <c r="AB11" t="n">
-        <v>2183.517629151451</v>
+        <v>2468.909239925788</v>
       </c>
       <c r="AC11" t="n">
-        <v>1975.125771211476</v>
+        <v>2233.280007203151</v>
       </c>
       <c r="AD11" t="n">
-        <v>1595853.840848462</v>
+        <v>1804436.218256216</v>
       </c>
       <c r="AE11" t="n">
-        <v>2183517.629151451</v>
+        <v>2468909.239925788</v>
       </c>
       <c r="AF11" t="n">
         <v>4.858445868825147e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>43</v>
+        <v>42.725</v>
       </c>
       <c r="AH11" t="n">
-        <v>1975125.771211476</v>
+        <v>2233280.007203151</v>
       </c>
     </row>
   </sheetData>
@@ -13832,28 +13832,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2002.494600053403</v>
+        <v>2261.427924179882</v>
       </c>
       <c r="AB2" t="n">
-        <v>2739.901455619826</v>
+        <v>3094.185453021893</v>
       </c>
       <c r="AC2" t="n">
-        <v>2478.409106171315</v>
+        <v>2798.880736101925</v>
       </c>
       <c r="AD2" t="n">
-        <v>2002494.600053404</v>
+        <v>2261427.924179882</v>
       </c>
       <c r="AE2" t="n">
-        <v>2739901.455619826</v>
+        <v>3094185.453021893</v>
       </c>
       <c r="AF2" t="n">
         <v>4.970197583717127e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.23749999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>2478409.106171315</v>
+        <v>2798880.736101925</v>
       </c>
     </row>
     <row r="3">
@@ -13938,28 +13938,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1479.052023659244</v>
+        <v>1700.94620960223</v>
       </c>
       <c r="AB3" t="n">
-        <v>2023.704229940666</v>
+        <v>2327.30964442845</v>
       </c>
       <c r="AC3" t="n">
-        <v>1830.564738521853</v>
+        <v>2105.194478363799</v>
       </c>
       <c r="AD3" t="n">
-        <v>1479052.023659244</v>
+        <v>1700946.20960223</v>
       </c>
       <c r="AE3" t="n">
-        <v>2023704.229940665</v>
+        <v>2327309.64442845</v>
       </c>
       <c r="AF3" t="n">
         <v>5.906516126268107e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.47916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1830564.738521853</v>
+        <v>2105194.478363799</v>
       </c>
     </row>
     <row r="4">
@@ -14044,28 +14044,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1326.851871837491</v>
+        <v>1530.311902235685</v>
       </c>
       <c r="AB4" t="n">
-        <v>1815.457267621337</v>
+        <v>2093.840257235191</v>
       </c>
       <c r="AC4" t="n">
-        <v>1642.192574009835</v>
+        <v>1894.007081807922</v>
       </c>
       <c r="AD4" t="n">
-        <v>1326851.871837491</v>
+        <v>1530311.902235685</v>
       </c>
       <c r="AE4" t="n">
-        <v>1815457.267621337</v>
+        <v>2093840.257235191</v>
       </c>
       <c r="AF4" t="n">
         <v>6.218841945528602e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.14583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1642192.574009835</v>
+        <v>1894007.081807922</v>
       </c>
     </row>
     <row r="5">
@@ -14150,28 +14150,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1329.758748012728</v>
+        <v>1533.218778410921</v>
       </c>
       <c r="AB5" t="n">
-        <v>1819.434583846622</v>
+        <v>2097.817573460475</v>
       </c>
       <c r="AC5" t="n">
-        <v>1645.790300756776</v>
+        <v>1897.604808554863</v>
       </c>
       <c r="AD5" t="n">
-        <v>1329758.748012728</v>
+        <v>1533218.778410921</v>
       </c>
       <c r="AE5" t="n">
-        <v>1819434.583846622</v>
+        <v>2097817.573460475</v>
       </c>
       <c r="AF5" t="n">
         <v>6.228066758755706e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.07916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1645790.300756776</v>
+        <v>1897604.808554863</v>
       </c>
     </row>
   </sheetData>
@@ -14447,28 +14447,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8549.509621947558</v>
+        <v>9054.30558344899</v>
       </c>
       <c r="AB2" t="n">
-        <v>11697.81624249397</v>
+        <v>12388.50034704635</v>
       </c>
       <c r="AC2" t="n">
-        <v>10581.39307829812</v>
+        <v>11206.15926129322</v>
       </c>
       <c r="AD2" t="n">
-        <v>8549509.621947559</v>
+        <v>9054305.583448989</v>
       </c>
       <c r="AE2" t="n">
-        <v>11697816.24249397</v>
+        <v>12388500.34704635</v>
       </c>
       <c r="AF2" t="n">
         <v>1.649042351320282e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>102</v>
+        <v>101.6291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>10581393.07829811</v>
+        <v>11206159.26129322</v>
       </c>
     </row>
     <row r="3">
@@ -14553,28 +14553,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3601.001613769195</v>
+        <v>3901.842752787559</v>
       </c>
       <c r="AB3" t="n">
-        <v>4927.049272938365</v>
+        <v>5338.673391517666</v>
       </c>
       <c r="AC3" t="n">
-        <v>4456.818605486028</v>
+        <v>4829.157895906183</v>
       </c>
       <c r="AD3" t="n">
-        <v>3601001.613769195</v>
+        <v>3901842.752787559</v>
       </c>
       <c r="AE3" t="n">
-        <v>4927049.272938365</v>
+        <v>5338673.391517665</v>
       </c>
       <c r="AF3" t="n">
         <v>2.782055108312778e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>61</v>
+        <v>60.23749999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>4456818.605486028</v>
+        <v>4829157.895906183</v>
       </c>
     </row>
     <row r="4">
@@ -14659,28 +14659,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2890.426412686044</v>
+        <v>3152.431836909102</v>
       </c>
       <c r="AB4" t="n">
-        <v>3954.808934450929</v>
+        <v>4313.296314736469</v>
       </c>
       <c r="AC4" t="n">
-        <v>3577.367520355984</v>
+        <v>3901.641368207256</v>
       </c>
       <c r="AD4" t="n">
-        <v>2890426.412686044</v>
+        <v>3152431.836909102</v>
       </c>
       <c r="AE4" t="n">
-        <v>3954808.934450929</v>
+        <v>4313296.314736469</v>
       </c>
       <c r="AF4" t="n">
         <v>3.195120107045932e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.45416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3577367.520355984</v>
+        <v>3901641.368207256</v>
       </c>
     </row>
     <row r="5">
@@ -14765,28 +14765,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2605.718238518194</v>
+        <v>2848.339970762379</v>
       </c>
       <c r="AB5" t="n">
-        <v>3565.258650116282</v>
+        <v>3897.22440788819</v>
       </c>
       <c r="AC5" t="n">
-        <v>3224.995368420992</v>
+        <v>3525.278780188004</v>
       </c>
       <c r="AD5" t="n">
-        <v>2605718.238518194</v>
+        <v>2848339.970762379</v>
       </c>
       <c r="AE5" t="n">
-        <v>3565258.650116282</v>
+        <v>3897224.40788819</v>
       </c>
       <c r="AF5" t="n">
         <v>3.412311050878359e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.10833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3224995.368420992</v>
+        <v>3525278.780188004</v>
       </c>
     </row>
     <row r="6">
@@ -14871,28 +14871,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2443.304770984639</v>
+        <v>2676.217574529996</v>
       </c>
       <c r="AB6" t="n">
-        <v>3343.037378660362</v>
+        <v>3661.718951858831</v>
       </c>
       <c r="AC6" t="n">
-        <v>3023.982583223321</v>
+        <v>3312.249634348112</v>
       </c>
       <c r="AD6" t="n">
-        <v>2443304.770984639</v>
+        <v>2676217.574529996</v>
       </c>
       <c r="AE6" t="n">
-        <v>3343037.378660362</v>
+        <v>3661718.951858831</v>
       </c>
       <c r="AF6" t="n">
         <v>3.548658698950938e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.225</v>
       </c>
       <c r="AH6" t="n">
-        <v>3023982.583223321</v>
+        <v>3312249.634348112</v>
       </c>
     </row>
     <row r="7">
@@ -14977,28 +14977,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2341.339883830947</v>
+        <v>2564.577924096258</v>
       </c>
       <c r="AB7" t="n">
-        <v>3203.524521683332</v>
+        <v>3508.968656941608</v>
       </c>
       <c r="AC7" t="n">
-        <v>2897.784637508659</v>
+        <v>3174.07761319141</v>
       </c>
       <c r="AD7" t="n">
-        <v>2341339.883830947</v>
+        <v>2564577.924096258</v>
       </c>
       <c r="AE7" t="n">
-        <v>3203524.521683332</v>
+        <v>3508968.656941608</v>
       </c>
       <c r="AF7" t="n">
         <v>3.640361541902408e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.03749999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>2897784.637508659</v>
+        <v>3174077.61319141</v>
       </c>
     </row>
     <row r="8">
@@ -15083,28 +15083,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2265.027053287758</v>
+        <v>2488.230928134289</v>
       </c>
       <c r="AB8" t="n">
-        <v>3099.10994024966</v>
+        <v>3404.507328874688</v>
       </c>
       <c r="AC8" t="n">
-        <v>2803.335237180235</v>
+        <v>3079.585927662806</v>
       </c>
       <c r="AD8" t="n">
-        <v>2265027.053287758</v>
+        <v>2488230.928134289</v>
       </c>
       <c r="AE8" t="n">
-        <v>3099109.94024966</v>
+        <v>3404507.328874688</v>
       </c>
       <c r="AF8" t="n">
         <v>3.707529852309843e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.20416666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>2803335.237180235</v>
+        <v>3079585.927662806</v>
       </c>
     </row>
     <row r="9">
@@ -15189,28 +15189,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2205.314146320107</v>
+        <v>2428.585340974343</v>
       </c>
       <c r="AB9" t="n">
-        <v>3017.408106588983</v>
+        <v>3322.897605144853</v>
       </c>
       <c r="AC9" t="n">
-        <v>2729.430911854892</v>
+        <v>3005.764921425783</v>
       </c>
       <c r="AD9" t="n">
-        <v>2205314.146320107</v>
+        <v>2428585.340974343</v>
       </c>
       <c r="AE9" t="n">
-        <v>3017408.106588983</v>
+        <v>3322897.605144853</v>
       </c>
       <c r="AF9" t="n">
         <v>3.757001122849452e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.60416666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>2729430.911854892</v>
+        <v>3005764.921425783</v>
       </c>
     </row>
     <row r="10">
@@ -15295,28 +15295,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2164.016589920478</v>
+        <v>2377.545701486965</v>
       </c>
       <c r="AB10" t="n">
-        <v>2960.902968003233</v>
+        <v>3253.062918688242</v>
       </c>
       <c r="AC10" t="n">
-        <v>2678.318544390419</v>
+        <v>2942.595159430995</v>
       </c>
       <c r="AD10" t="n">
-        <v>2164016.589920477</v>
+        <v>2377545.701486965</v>
       </c>
       <c r="AE10" t="n">
-        <v>2960902.968003233</v>
+        <v>3253062.918688242</v>
       </c>
       <c r="AF10" t="n">
         <v>3.796015051648981e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.14583333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>2678318.544390419</v>
+        <v>2942595.159430995</v>
       </c>
     </row>
     <row r="11">
@@ -15401,28 +15401,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2118.753131658078</v>
+        <v>2341.990160893535</v>
       </c>
       <c r="AB11" t="n">
-        <v>2898.971507525772</v>
+        <v>3204.414259448564</v>
       </c>
       <c r="AC11" t="n">
-        <v>2622.297735579577</v>
+        <v>2898.589459950331</v>
       </c>
       <c r="AD11" t="n">
-        <v>2118753.131658078</v>
+        <v>2341990.160893535</v>
       </c>
       <c r="AE11" t="n">
-        <v>2898971.507525772</v>
+        <v>3204414.259448564</v>
       </c>
       <c r="AF11" t="n">
         <v>3.829398104126928e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.7625</v>
       </c>
       <c r="AH11" t="n">
-        <v>2622297.735579576</v>
+        <v>2898589.459950331</v>
       </c>
     </row>
     <row r="12">
@@ -15507,28 +15507,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2087.871460390852</v>
+        <v>2301.366406538558</v>
       </c>
       <c r="AB12" t="n">
-        <v>2856.717842494771</v>
+        <v>3148.831046546526</v>
       </c>
       <c r="AC12" t="n">
-        <v>2584.076701035743</v>
+        <v>2848.311030876137</v>
       </c>
       <c r="AD12" t="n">
-        <v>2087871.460390852</v>
+        <v>2301366.406538558</v>
       </c>
       <c r="AE12" t="n">
-        <v>2856717.84249477</v>
+        <v>3148831.046546526</v>
       </c>
       <c r="AF12" t="n">
         <v>3.855541458477128e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.46666666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>2584076.701035743</v>
+        <v>2848311.030876137</v>
       </c>
     </row>
     <row r="13">
@@ -15613,28 +15613,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2058.795184750423</v>
+        <v>2272.290130898129</v>
       </c>
       <c r="AB13" t="n">
-        <v>2816.934399408787</v>
+        <v>3109.04760346054</v>
       </c>
       <c r="AC13" t="n">
-        <v>2548.090133921472</v>
+        <v>2812.324463761866</v>
       </c>
       <c r="AD13" t="n">
-        <v>2058795.184750423</v>
+        <v>2272290.130898129</v>
       </c>
       <c r="AE13" t="n">
-        <v>2816934.399408787</v>
+        <v>3109047.60346054</v>
       </c>
       <c r="AF13" t="n">
         <v>3.87967378556962e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.19583333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2548090.133921472</v>
+        <v>2812324.463761866</v>
       </c>
     </row>
     <row r="14">
@@ -15719,19 +15719,19 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2025.494043040797</v>
+        <v>2248.696906857473</v>
       </c>
       <c r="AB14" t="n">
-        <v>2771.37030817899</v>
+        <v>3076.766313468527</v>
       </c>
       <c r="AC14" t="n">
-        <v>2506.874615609045</v>
+        <v>2783.124054779617</v>
       </c>
       <c r="AD14" t="n">
-        <v>2025494.043040797</v>
+        <v>2248696.906857473</v>
       </c>
       <c r="AE14" t="n">
-        <v>2771370.308178991</v>
+        <v>3076766.313468527</v>
       </c>
       <c r="AF14" t="n">
         <v>3.897370825437446e-06</v>
@@ -15740,7 +15740,7 @@
         <v>43</v>
       </c>
       <c r="AH14" t="n">
-        <v>2506874.615609045</v>
+        <v>2783124.054779617</v>
       </c>
     </row>
     <row r="15">
@@ -15825,28 +15825,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2002.697975923842</v>
+        <v>2216.260241879253</v>
       </c>
       <c r="AB15" t="n">
-        <v>2740.179723458071</v>
+        <v>3032.385037440662</v>
       </c>
       <c r="AC15" t="n">
-        <v>2478.660816517628</v>
+        <v>2742.97846544634</v>
       </c>
       <c r="AD15" t="n">
-        <v>2002697.975923842</v>
+        <v>2216260.241879253</v>
       </c>
       <c r="AE15" t="n">
-        <v>2740179.723458071</v>
+        <v>3032385.037440661</v>
       </c>
       <c r="AF15" t="n">
         <v>3.912654632596025e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>43</v>
+        <v>42.82916666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2478660.816517628</v>
+        <v>2742978.465446339</v>
       </c>
     </row>
     <row r="16">
@@ -15931,28 +15931,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1979.304729645634</v>
+        <v>2192.866995601045</v>
       </c>
       <c r="AB16" t="n">
-        <v>2708.172051863037</v>
+        <v>3000.377365845626</v>
       </c>
       <c r="AC16" t="n">
-        <v>2449.707912176576</v>
+        <v>2714.025561105287</v>
       </c>
       <c r="AD16" t="n">
-        <v>1979304.729645634</v>
+        <v>2192866.995601045</v>
       </c>
       <c r="AE16" t="n">
-        <v>2708172.051863037</v>
+        <v>3000377.365845626</v>
       </c>
       <c r="AF16" t="n">
         <v>3.928340645206145e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>43</v>
+        <v>42.6625</v>
       </c>
       <c r="AH16" t="n">
-        <v>2449707.912176576</v>
+        <v>2714025.561105287</v>
       </c>
     </row>
     <row r="17">
@@ -16037,28 +16037,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1960.822143692504</v>
+        <v>2174.384409647912</v>
       </c>
       <c r="AB17" t="n">
-        <v>2682.883362367821</v>
+        <v>2975.088676350234</v>
       </c>
       <c r="AC17" t="n">
-        <v>2426.832739713884</v>
+        <v>2691.150388642549</v>
       </c>
       <c r="AD17" t="n">
-        <v>1960822.143692504</v>
+        <v>2174384.409647912</v>
       </c>
       <c r="AE17" t="n">
-        <v>2682883.362367821</v>
+        <v>2975088.676350234</v>
       </c>
       <c r="AF17" t="n">
         <v>3.939602397849308e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>43</v>
+        <v>42.5375</v>
       </c>
       <c r="AH17" t="n">
-        <v>2426832.739713884</v>
+        <v>2691150.38864255</v>
       </c>
     </row>
     <row r="18">
@@ -16143,28 +16143,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1936.623908238749</v>
+        <v>2150.084688967672</v>
       </c>
       <c r="AB18" t="n">
-        <v>2649.774269069189</v>
+        <v>2941.840726487513</v>
       </c>
       <c r="AC18" t="n">
-        <v>2396.88353181077</v>
+        <v>2661.075576450935</v>
       </c>
       <c r="AD18" t="n">
-        <v>1936623.908238749</v>
+        <v>2150084.688967672</v>
       </c>
       <c r="AE18" t="n">
-        <v>2649774.269069189</v>
+        <v>2941840.726487513</v>
       </c>
       <c r="AF18" t="n">
         <v>3.952472972298637e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>43</v>
+        <v>42.4</v>
       </c>
       <c r="AH18" t="n">
-        <v>2396883.53181077</v>
+        <v>2661075.576450936</v>
       </c>
     </row>
     <row r="19">
@@ -16249,28 +16249,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1918.951842132681</v>
+        <v>2132.412622861604</v>
       </c>
       <c r="AB19" t="n">
-        <v>2625.594568586333</v>
+        <v>2917.661026004658</v>
       </c>
       <c r="AC19" t="n">
-        <v>2375.011508005575</v>
+        <v>2639.203552645742</v>
       </c>
       <c r="AD19" t="n">
-        <v>1918951.842132681</v>
+        <v>2132412.622861604</v>
       </c>
       <c r="AE19" t="n">
-        <v>2625594.568586334</v>
+        <v>2917661.026004658</v>
       </c>
       <c r="AF19" t="n">
         <v>3.962125903135633e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>43</v>
+        <v>42.29583333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>2375011.508005575</v>
+        <v>2639203.552645741</v>
       </c>
     </row>
     <row r="20">
@@ -16355,28 +16355,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1908.920531399657</v>
+        <v>2122.38131212858</v>
       </c>
       <c r="AB20" t="n">
-        <v>2611.869286691215</v>
+        <v>2903.935744109539</v>
       </c>
       <c r="AC20" t="n">
-        <v>2362.596147750972</v>
+        <v>2626.788192391139</v>
       </c>
       <c r="AD20" t="n">
-        <v>1908920.531399657</v>
+        <v>2122381.31212858</v>
       </c>
       <c r="AE20" t="n">
-        <v>2611869.286691215</v>
+        <v>2903935.744109539</v>
       </c>
       <c r="AF20" t="n">
         <v>3.96655016310259e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>43</v>
+        <v>42.25</v>
       </c>
       <c r="AH20" t="n">
-        <v>2362596.147750972</v>
+        <v>2626788.192391139</v>
       </c>
     </row>
     <row r="21">
@@ -16461,28 +16461,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1915.207095884185</v>
+        <v>2128.667876613107</v>
       </c>
       <c r="AB21" t="n">
-        <v>2620.470841562596</v>
+        <v>2912.53729898092</v>
       </c>
       <c r="AC21" t="n">
-        <v>2370.376782297787</v>
+        <v>2634.568826937953</v>
       </c>
       <c r="AD21" t="n">
-        <v>1915207.095884185</v>
+        <v>2128667.876613107</v>
       </c>
       <c r="AE21" t="n">
-        <v>2620470.841562596</v>
+        <v>2912537.29898092</v>
       </c>
       <c r="AF21" t="n">
         <v>3.965343546747966e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>43</v>
+        <v>42.2625</v>
       </c>
       <c r="AH21" t="n">
-        <v>2370376.782297787</v>
+        <v>2634568.826937953</v>
       </c>
     </row>
     <row r="22">
@@ -16567,28 +16567,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1921.601217807265</v>
+        <v>2135.061998536188</v>
       </c>
       <c r="AB22" t="n">
-        <v>2629.219561266505</v>
+        <v>2921.286018684829</v>
       </c>
       <c r="AC22" t="n">
-        <v>2378.29053647206</v>
+        <v>2642.482581112226</v>
       </c>
       <c r="AD22" t="n">
-        <v>1921601.217807265</v>
+        <v>2135061.998536188</v>
       </c>
       <c r="AE22" t="n">
-        <v>2629219.561266505</v>
+        <v>2921286.018684829</v>
       </c>
       <c r="AF22" t="n">
         <v>3.965343546747966e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>43</v>
+        <v>42.26666666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>2378290.53647206</v>
+        <v>2642482.581112226</v>
       </c>
     </row>
   </sheetData>
@@ -16864,28 +16864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1672.385884684033</v>
+        <v>1920.367229843237</v>
       </c>
       <c r="AB2" t="n">
-        <v>2288.232147882763</v>
+        <v>2627.531164494415</v>
       </c>
       <c r="AC2" t="n">
-        <v>2069.846483242822</v>
+        <v>2376.763277918219</v>
       </c>
       <c r="AD2" t="n">
-        <v>1672385.884684033</v>
+        <v>1920367.229843237</v>
       </c>
       <c r="AE2" t="n">
-        <v>2288232.147882763</v>
+        <v>2627531.164494415</v>
       </c>
       <c r="AF2" t="n">
         <v>5.750493152196285e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.24166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2069846.483242822</v>
+        <v>2376763.277918219</v>
       </c>
     </row>
     <row r="3">
@@ -16970,28 +16970,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1281.86007271149</v>
+        <v>1493.11750983696</v>
       </c>
       <c r="AB3" t="n">
-        <v>1753.897503159052</v>
+        <v>2042.949248654472</v>
       </c>
       <c r="AC3" t="n">
-        <v>1586.507987068157</v>
+        <v>1847.973039660167</v>
       </c>
       <c r="AD3" t="n">
-        <v>1281860.07271149</v>
+        <v>1493117.50983696</v>
       </c>
       <c r="AE3" t="n">
-        <v>1753897.503159052</v>
+        <v>2042949.248654472</v>
       </c>
       <c r="AF3" t="n">
         <v>6.641617717907745e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.22916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1586507.987068157</v>
+        <v>1847973.039660167</v>
       </c>
     </row>
     <row r="4">
@@ -17076,28 +17076,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1255.658894780933</v>
+        <v>1466.983651714108</v>
       </c>
       <c r="AB4" t="n">
-        <v>1718.047895600074</v>
+        <v>2007.191751026335</v>
       </c>
       <c r="AC4" t="n">
-        <v>1554.079815739368</v>
+        <v>1815.628187419697</v>
       </c>
       <c r="AD4" t="n">
-        <v>1255658.894780933</v>
+        <v>1466983.651714107</v>
       </c>
       <c r="AE4" t="n">
-        <v>1718047.895600074</v>
+        <v>2007191.751026335</v>
       </c>
       <c r="AF4" t="n">
         <v>6.707947378138695e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.78333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1554079.815739368</v>
+        <v>1815628.187419697</v>
       </c>
     </row>
   </sheetData>
@@ -17373,28 +17373,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5444.792538591272</v>
+        <v>5847.371526856913</v>
       </c>
       <c r="AB2" t="n">
-        <v>7449.805358594826</v>
+        <v>8000.631690871397</v>
       </c>
       <c r="AC2" t="n">
-        <v>6738.806391037744</v>
+        <v>7237.062631251431</v>
       </c>
       <c r="AD2" t="n">
-        <v>5444792.538591272</v>
+        <v>5847371.526856913</v>
       </c>
       <c r="AE2" t="n">
-        <v>7449805.358594825</v>
+        <v>8000631.690871397</v>
       </c>
       <c r="AF2" t="n">
         <v>2.276702501242626e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83</v>
+        <v>82.0125</v>
       </c>
       <c r="AH2" t="n">
-        <v>6738806.391037744</v>
+        <v>7237062.631251431</v>
       </c>
     </row>
     <row r="3">
@@ -17479,28 +17479,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2845.960658169931</v>
+        <v>3114.335598884052</v>
       </c>
       <c r="AB3" t="n">
-        <v>3893.968927431339</v>
+        <v>4261.171361183188</v>
       </c>
       <c r="AC3" t="n">
-        <v>3522.333998216859</v>
+        <v>3854.49114706327</v>
       </c>
       <c r="AD3" t="n">
-        <v>2845960.658169931</v>
+        <v>3114335.598884052</v>
       </c>
       <c r="AE3" t="n">
-        <v>3893968.927431339</v>
+        <v>4261171.361183188</v>
       </c>
       <c r="AF3" t="n">
         <v>3.374718471330113e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.32916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3522333.998216859</v>
+        <v>3854491.14706327</v>
       </c>
     </row>
     <row r="4">
@@ -17585,28 +17585,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2379.277154246773</v>
+        <v>2628.508361782631</v>
       </c>
       <c r="AB4" t="n">
-        <v>3255.431968740516</v>
+        <v>3596.441102195963</v>
       </c>
       <c r="AC4" t="n">
-        <v>2944.738110671262</v>
+        <v>3253.201811039034</v>
       </c>
       <c r="AD4" t="n">
-        <v>2379277.154246773</v>
+        <v>2628508.361782631</v>
       </c>
       <c r="AE4" t="n">
-        <v>3255431.968740516</v>
+        <v>3596441.102195963</v>
       </c>
       <c r="AF4" t="n">
         <v>3.766418862291935e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.57916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2944738.110671262</v>
+        <v>3253201.811039034</v>
       </c>
     </row>
     <row r="5">
@@ -17691,28 +17691,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2183.451361531811</v>
+        <v>2413.472527111563</v>
       </c>
       <c r="AB5" t="n">
-        <v>2987.494479923471</v>
+        <v>3302.219586487503</v>
       </c>
       <c r="AC5" t="n">
-        <v>2702.372199734411</v>
+        <v>2987.060383847309</v>
       </c>
       <c r="AD5" t="n">
-        <v>2183451.361531811</v>
+        <v>2413472.527111562</v>
       </c>
       <c r="AE5" t="n">
-        <v>2987494.479923471</v>
+        <v>3302219.586487503</v>
       </c>
       <c r="AF5" t="n">
         <v>3.969439774312193e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.04166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2702372.199734411</v>
+        <v>2987060.383847309</v>
       </c>
     </row>
     <row r="6">
@@ -17797,28 +17797,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2061.815408265493</v>
+        <v>2291.869728234167</v>
       </c>
       <c r="AB6" t="n">
-        <v>2821.066802464963</v>
+        <v>3135.83727232658</v>
       </c>
       <c r="AC6" t="n">
-        <v>2551.828146229831</v>
+        <v>2836.557364230866</v>
       </c>
       <c r="AD6" t="n">
-        <v>2061815.408265493</v>
+        <v>2291869.728234167</v>
       </c>
       <c r="AE6" t="n">
-        <v>2821066.802464963</v>
+        <v>3135837.27232658</v>
       </c>
       <c r="AF6" t="n">
         <v>4.093582804399635e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.61666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2551828.146229831</v>
+        <v>2836557.364230867</v>
       </c>
     </row>
     <row r="7">
@@ -17903,28 +17903,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1981.829291435869</v>
+        <v>2202.329333039731</v>
       </c>
       <c r="AB7" t="n">
-        <v>2711.626268680243</v>
+        <v>3013.324153378103</v>
       </c>
       <c r="AC7" t="n">
-        <v>2452.832463388771</v>
+        <v>2725.736725406594</v>
       </c>
       <c r="AD7" t="n">
-        <v>1981829.291435869</v>
+        <v>2202329.333039731</v>
       </c>
       <c r="AE7" t="n">
-        <v>2711626.268680243</v>
+        <v>3013324.153378103</v>
       </c>
       <c r="AF7" t="n">
         <v>4.177838723736961e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.7</v>
       </c>
       <c r="AH7" t="n">
-        <v>2452832.463388771</v>
+        <v>2725736.725406595</v>
       </c>
     </row>
     <row r="8">
@@ -18009,28 +18009,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1929.233730909599</v>
+        <v>2140.112174340942</v>
       </c>
       <c r="AB8" t="n">
-        <v>2639.662702415833</v>
+        <v>2928.195892018926</v>
       </c>
       <c r="AC8" t="n">
-        <v>2387.736998887136</v>
+        <v>2648.732985833386</v>
       </c>
       <c r="AD8" t="n">
-        <v>1929233.730909599</v>
+        <v>2140112.174340942</v>
       </c>
       <c r="AE8" t="n">
-        <v>2639662.702415833</v>
+        <v>2928195.892018926</v>
       </c>
       <c r="AF8" t="n">
         <v>4.238341644537699e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.05833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2387736.998887136</v>
+        <v>2648732.985833385</v>
       </c>
     </row>
     <row r="9">
@@ -18115,28 +18115,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1875.398152140233</v>
+        <v>2095.864028325312</v>
       </c>
       <c r="AB9" t="n">
-        <v>2566.002488485474</v>
+        <v>2867.65362654991</v>
       </c>
       <c r="AC9" t="n">
-        <v>2321.106812391532</v>
+        <v>2593.968789209129</v>
       </c>
       <c r="AD9" t="n">
-        <v>1875398.152140233</v>
+        <v>2095864.028325312</v>
       </c>
       <c r="AE9" t="n">
-        <v>2566002.488485474</v>
+        <v>2867653.62654991</v>
       </c>
       <c r="AF9" t="n">
         <v>4.285399471827163e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.575</v>
       </c>
       <c r="AH9" t="n">
-        <v>2321106.812391532</v>
+        <v>2593968.789209129</v>
       </c>
     </row>
     <row r="10">
@@ -18221,28 +18221,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1837.925160368301</v>
+        <v>2048.769438380863</v>
       </c>
       <c r="AB10" t="n">
-        <v>2514.730287951396</v>
+        <v>2803.216730921242</v>
       </c>
       <c r="AC10" t="n">
-        <v>2274.727958715441</v>
+        <v>2535.68166046151</v>
       </c>
       <c r="AD10" t="n">
-        <v>1837925.160368301</v>
+        <v>2048769.438380863</v>
       </c>
       <c r="AE10" t="n">
-        <v>2514730.287951396</v>
+        <v>2803216.730921242</v>
       </c>
       <c r="AF10" t="n">
         <v>4.321701224307607e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.2125</v>
       </c>
       <c r="AH10" t="n">
-        <v>2274727.958715441</v>
+        <v>2535681.66046151</v>
       </c>
     </row>
     <row r="11">
@@ -18327,28 +18327,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1795.741921951717</v>
+        <v>2016.173632718015</v>
       </c>
       <c r="AB11" t="n">
-        <v>2457.01332015669</v>
+        <v>2758.617711587878</v>
       </c>
       <c r="AC11" t="n">
-        <v>2222.519417320788</v>
+        <v>2495.339108938205</v>
       </c>
       <c r="AD11" t="n">
-        <v>1795741.921951717</v>
+        <v>2016173.632718015</v>
       </c>
       <c r="AE11" t="n">
-        <v>2457013.32015669</v>
+        <v>2758617.711587878</v>
       </c>
       <c r="AF11" t="n">
         <v>4.349487750897576e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>43</v>
+        <v>42.93333333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>2222519.417320788</v>
+        <v>2495339.108938205</v>
       </c>
     </row>
     <row r="12">
@@ -18433,28 +18433,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1764.852125808216</v>
+        <v>1975.763723628482</v>
       </c>
       <c r="AB12" t="n">
-        <v>2414.748538311524</v>
+        <v>2703.327091212211</v>
       </c>
       <c r="AC12" t="n">
-        <v>2184.288326935931</v>
+        <v>2445.325347770319</v>
       </c>
       <c r="AD12" t="n">
-        <v>1764852.125808216</v>
+        <v>1975763.723628482</v>
       </c>
       <c r="AE12" t="n">
-        <v>2414748.538311524</v>
+        <v>2703327.091212211</v>
       </c>
       <c r="AF12" t="n">
         <v>4.375033428568999e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>43</v>
+        <v>42.68333333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>2184288.326935931</v>
+        <v>2445325.347770319</v>
       </c>
     </row>
     <row r="13">
@@ -18539,28 +18539,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1736.020586594913</v>
+        <v>1946.830699188694</v>
       </c>
       <c r="AB13" t="n">
-        <v>2375.299954402144</v>
+        <v>2663.739650738741</v>
       </c>
       <c r="AC13" t="n">
-        <v>2148.604660508427</v>
+        <v>2409.516077054316</v>
       </c>
       <c r="AD13" t="n">
-        <v>1736020.586594913</v>
+        <v>1946830.699188694</v>
       </c>
       <c r="AE13" t="n">
-        <v>2375299.954402144</v>
+        <v>2663739.650738741</v>
       </c>
       <c r="AF13" t="n">
         <v>4.394752899052203e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>43</v>
+        <v>42.49166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2148604.660508427</v>
+        <v>2409516.077054316</v>
       </c>
     </row>
     <row r="14">
@@ -18645,28 +18645,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1729.323777910871</v>
+        <v>1940.133890504652</v>
       </c>
       <c r="AB14" t="n">
-        <v>2366.137085318288</v>
+        <v>2654.576781654886</v>
       </c>
       <c r="AC14" t="n">
-        <v>2140.316282789767</v>
+        <v>2401.227699335656</v>
       </c>
       <c r="AD14" t="n">
-        <v>1729323.777910871</v>
+        <v>1940133.890504652</v>
       </c>
       <c r="AE14" t="n">
-        <v>2366137.085318288</v>
+        <v>2654576.781654886</v>
       </c>
       <c r="AF14" t="n">
         <v>4.400579106240422e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>43</v>
+        <v>42.4375</v>
       </c>
       <c r="AH14" t="n">
-        <v>2140316.282789767</v>
+        <v>2401227.699335656</v>
       </c>
     </row>
     <row r="15">
@@ -18751,28 +18751,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1735.851536083755</v>
+        <v>1946.661648677536</v>
       </c>
       <c r="AB15" t="n">
-        <v>2375.068652034794</v>
+        <v>2663.508348371392</v>
       </c>
       <c r="AC15" t="n">
-        <v>2148.395433314382</v>
+        <v>2409.306849860272</v>
       </c>
       <c r="AD15" t="n">
-        <v>1735851.536083755</v>
+        <v>1946661.648677536</v>
       </c>
       <c r="AE15" t="n">
-        <v>2375068.652034794</v>
+        <v>2663508.348371392</v>
       </c>
       <c r="AF15" t="n">
         <v>4.400579106240422e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>43</v>
+        <v>42.43333333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>2148395.433314383</v>
+        <v>2409306.849860271</v>
       </c>
     </row>
   </sheetData>
@@ -19048,28 +19048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6790.628538578954</v>
+        <v>7244.12729269382</v>
       </c>
       <c r="AB2" t="n">
-        <v>9291.237547871984</v>
+        <v>9911.73455020499</v>
       </c>
       <c r="AC2" t="n">
-        <v>8404.494876636531</v>
+        <v>8965.772515939865</v>
       </c>
       <c r="AD2" t="n">
-        <v>6790628.538578955</v>
+        <v>7244127.29269382</v>
       </c>
       <c r="AE2" t="n">
-        <v>9291237.547871985</v>
+        <v>9911734.55020499</v>
       </c>
       <c r="AF2" t="n">
         <v>1.937913493422847e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>91</v>
+        <v>90.96249999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>8404494.876636531</v>
+        <v>8965772.515939865</v>
       </c>
     </row>
     <row r="3">
@@ -19154,28 +19154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3207.160835685425</v>
+        <v>3496.625217850762</v>
       </c>
       <c r="AB3" t="n">
-        <v>4388.178945335259</v>
+        <v>4784.236883281157</v>
       </c>
       <c r="AC3" t="n">
-        <v>3969.377305640127</v>
+        <v>4327.636029859262</v>
       </c>
       <c r="AD3" t="n">
-        <v>3207160.835685425</v>
+        <v>3496625.217850761</v>
       </c>
       <c r="AE3" t="n">
-        <v>4388178.94533526</v>
+        <v>4784236.883281157</v>
       </c>
       <c r="AF3" t="n">
         <v>3.053874156083722e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.72083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3969377.305640128</v>
+        <v>4327636.029859262</v>
       </c>
     </row>
     <row r="4">
@@ -19260,28 +19260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2625.88661007225</v>
+        <v>2886.363555518517</v>
       </c>
       <c r="AB4" t="n">
-        <v>3592.853905842298</v>
+        <v>3949.249954033709</v>
       </c>
       <c r="AC4" t="n">
-        <v>3249.956971670701</v>
+        <v>3572.339081227706</v>
       </c>
       <c r="AD4" t="n">
-        <v>2625886.61007225</v>
+        <v>2886363.555518517</v>
       </c>
       <c r="AE4" t="n">
-        <v>3592853.905842299</v>
+        <v>3949249.95403371</v>
       </c>
       <c r="AF4" t="n">
         <v>3.457447496560778e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.97916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>3249956.971670701</v>
+        <v>3572339.081227706</v>
       </c>
     </row>
     <row r="5">
@@ -19366,28 +19366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2391.632956732255</v>
+        <v>2623.191807326869</v>
       </c>
       <c r="AB5" t="n">
-        <v>3272.337722800689</v>
+        <v>3589.166757839762</v>
       </c>
       <c r="AC5" t="n">
-        <v>2960.030403291306</v>
+        <v>3246.621719898581</v>
       </c>
       <c r="AD5" t="n">
-        <v>2391632.956732255</v>
+        <v>2623191.80732687</v>
       </c>
       <c r="AE5" t="n">
-        <v>3272337.722800689</v>
+        <v>3589166.757839762</v>
       </c>
       <c r="AF5" t="n">
         <v>3.669809988090634e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.03333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2960030.403291306</v>
+        <v>3246621.719898582</v>
       </c>
     </row>
     <row r="6">
@@ -19472,28 +19472,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2251.343684538646</v>
+        <v>2482.834204295699</v>
       </c>
       <c r="AB6" t="n">
-        <v>3080.387751459499</v>
+        <v>3397.123293232077</v>
       </c>
       <c r="AC6" t="n">
-        <v>2786.39986781145</v>
+        <v>3072.906614018367</v>
       </c>
       <c r="AD6" t="n">
-        <v>2251343.684538646</v>
+        <v>2482834.204295699</v>
       </c>
       <c r="AE6" t="n">
-        <v>3080387.751459499</v>
+        <v>3397123.293232077</v>
       </c>
       <c r="AF6" t="n">
         <v>3.800104106399788e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.38333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2786399.86781145</v>
+        <v>3072906.614018367</v>
       </c>
     </row>
     <row r="7">
@@ -19578,28 +19578,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2164.818111974268</v>
+        <v>2386.691706716673</v>
       </c>
       <c r="AB7" t="n">
-        <v>2961.999645837886</v>
+        <v>3265.576886536805</v>
       </c>
       <c r="AC7" t="n">
-        <v>2679.31055683173</v>
+        <v>2953.914811751555</v>
       </c>
       <c r="AD7" t="n">
-        <v>2164818.111974268</v>
+        <v>2386691.706716673</v>
       </c>
       <c r="AE7" t="n">
-        <v>2961999.645837886</v>
+        <v>3265576.886536805</v>
       </c>
       <c r="AF7" t="n">
         <v>3.883864611027102e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.38333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2679310.55683173</v>
+        <v>2953914.811751555</v>
       </c>
     </row>
     <row r="8">
@@ -19684,28 +19684,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2095.839808360111</v>
+        <v>2317.780722910222</v>
       </c>
       <c r="AB8" t="n">
-        <v>2867.620487725013</v>
+        <v>3171.289838354767</v>
       </c>
       <c r="AC8" t="n">
-        <v>2593.938813107169</v>
+        <v>2868.626387115312</v>
       </c>
       <c r="AD8" t="n">
-        <v>2095839.808360111</v>
+        <v>2317780.722910222</v>
       </c>
       <c r="AE8" t="n">
-        <v>2867620.487725013</v>
+        <v>3171289.838354767</v>
       </c>
       <c r="AF8" t="n">
         <v>3.94774257162672e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.64583333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>2593938.813107169</v>
+        <v>2868626.387115312</v>
       </c>
     </row>
     <row r="9">
@@ -19790,28 +19790,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2048.06011463565</v>
+        <v>2260.316784363407</v>
       </c>
       <c r="AB9" t="n">
-        <v>2802.246202879885</v>
+        <v>3092.665142504962</v>
       </c>
       <c r="AC9" t="n">
-        <v>2534.803758254276</v>
+        <v>2797.505521886961</v>
       </c>
       <c r="AD9" t="n">
-        <v>2048060.11463565</v>
+        <v>2260316.784363407</v>
       </c>
       <c r="AE9" t="n">
-        <v>2802246.202879885</v>
+        <v>3092665.142504962</v>
       </c>
       <c r="AF9" t="n">
         <v>3.998083480973439e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.0875</v>
       </c>
       <c r="AH9" t="n">
-        <v>2534803.758254276</v>
+        <v>2797505.521886961</v>
       </c>
     </row>
     <row r="10">
@@ -19896,28 +19896,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2000.758133866719</v>
+        <v>2222.664882998049</v>
       </c>
       <c r="AB10" t="n">
-        <v>2737.525545975723</v>
+        <v>3041.148149972222</v>
       </c>
       <c r="AC10" t="n">
-        <v>2476.259950009034</v>
+        <v>2750.905238816994</v>
       </c>
       <c r="AD10" t="n">
-        <v>2000758.133866719</v>
+        <v>2222664.882998049</v>
       </c>
       <c r="AE10" t="n">
-        <v>2737525.545975723</v>
+        <v>3041148.149972222</v>
       </c>
       <c r="AF10" t="n">
         <v>4.034887339067258e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.68333333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>2476259.950009034</v>
+        <v>2750905.238816994</v>
       </c>
     </row>
     <row r="11">
@@ -20002,28 +20002,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1966.614849271486</v>
+        <v>2178.837353580459</v>
       </c>
       <c r="AB11" t="n">
-        <v>2690.809197697117</v>
+        <v>2981.181390688767</v>
       </c>
       <c r="AC11" t="n">
-        <v>2434.002144443333</v>
+        <v>2696.661622875791</v>
       </c>
       <c r="AD11" t="n">
-        <v>1966614.849271486</v>
+        <v>2178837.353580459</v>
       </c>
       <c r="AE11" t="n">
-        <v>2690809.197697117</v>
+        <v>2981181.390688767</v>
       </c>
       <c r="AF11" t="n">
         <v>4.065768737237935e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.35</v>
       </c>
       <c r="AH11" t="n">
-        <v>2434002.144443333</v>
+        <v>2696661.622875791</v>
       </c>
     </row>
     <row r="12">
@@ -20108,28 +20108,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1935.526950782539</v>
+        <v>2147.749455091513</v>
       </c>
       <c r="AB12" t="n">
-        <v>2648.273363483255</v>
+        <v>2938.645556474904</v>
       </c>
       <c r="AC12" t="n">
-        <v>2395.525870547423</v>
+        <v>2658.185348979881</v>
       </c>
       <c r="AD12" t="n">
-        <v>1935526.950782539</v>
+        <v>2147749.455091513</v>
       </c>
       <c r="AE12" t="n">
-        <v>2648273.363483255</v>
+        <v>2938645.556474904</v>
       </c>
       <c r="AF12" t="n">
         <v>4.092842839743733e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.06666666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>2395525.870547423</v>
+        <v>2658185.348979881</v>
       </c>
     </row>
     <row r="13">
@@ -20214,28 +20214,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1897.881381774977</v>
+        <v>2110.171205891655</v>
       </c>
       <c r="AB13" t="n">
-        <v>2596.765035161818</v>
+        <v>2887.229338084308</v>
       </c>
       <c r="AC13" t="n">
-        <v>2348.93342478859</v>
+        <v>2611.676222309368</v>
       </c>
       <c r="AD13" t="n">
-        <v>1897881.381774977</v>
+        <v>2110171.205891655</v>
       </c>
       <c r="AE13" t="n">
-        <v>2596765.035161818</v>
+        <v>2887229.338084307</v>
       </c>
       <c r="AF13" t="n">
         <v>4.113994482326388e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>43</v>
+        <v>42.84166666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>2348933.42478859</v>
+        <v>2611676.222309368</v>
       </c>
     </row>
     <row r="14">
@@ -20320,28 +20320,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1874.280779828159</v>
+        <v>2086.570603944837</v>
       </c>
       <c r="AB14" t="n">
-        <v>2564.473650393108</v>
+        <v>2854.937953315597</v>
       </c>
       <c r="AC14" t="n">
-        <v>2319.723884460962</v>
+        <v>2582.466681981739</v>
       </c>
       <c r="AD14" t="n">
-        <v>1874280.779828159</v>
+        <v>2086570.603944837</v>
       </c>
       <c r="AE14" t="n">
-        <v>2564473.650393107</v>
+        <v>2854937.953315597</v>
       </c>
       <c r="AF14" t="n">
         <v>4.129223664985899e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>43</v>
+        <v>42.6875</v>
       </c>
       <c r="AH14" t="n">
-        <v>2319723.884460962</v>
+        <v>2582466.68198174</v>
       </c>
     </row>
     <row r="15">
@@ -20426,28 +20426,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1846.568553765713</v>
+        <v>2058.756892655906</v>
       </c>
       <c r="AB15" t="n">
-        <v>2526.55656011734</v>
+        <v>2816.882006475741</v>
       </c>
       <c r="AC15" t="n">
-        <v>2285.425548064144</v>
+        <v>2548.042741296423</v>
       </c>
       <c r="AD15" t="n">
-        <v>1846568.553765713</v>
+        <v>2058756.892655906</v>
       </c>
       <c r="AE15" t="n">
-        <v>2526556.56011734</v>
+        <v>2816882.006475741</v>
       </c>
       <c r="AF15" t="n">
         <v>4.149106209013595e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>43</v>
+        <v>42.48333333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>2285425.548064144</v>
+        <v>2548042.741296423</v>
       </c>
     </row>
     <row r="16">
@@ -20532,28 +20532,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1824.870259853483</v>
+        <v>2037.058598743676</v>
       </c>
       <c r="AB16" t="n">
-        <v>2496.867997125459</v>
+        <v>2787.19344348386</v>
       </c>
       <c r="AC16" t="n">
-        <v>2258.570419856048</v>
+        <v>2521.187613088327</v>
       </c>
       <c r="AD16" t="n">
-        <v>1824870.259853483</v>
+        <v>2037058.598743676</v>
       </c>
       <c r="AE16" t="n">
-        <v>2496867.997125459</v>
+        <v>2787193.44348386</v>
       </c>
       <c r="AF16" t="n">
         <v>4.160951128859882e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>43</v>
+        <v>42.3625</v>
       </c>
       <c r="AH16" t="n">
-        <v>2258570.419856048</v>
+        <v>2521187.613088327</v>
       </c>
     </row>
     <row r="17">
@@ -20638,28 +20638,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1819.687045141422</v>
+        <v>2031.875384031615</v>
       </c>
       <c r="AB17" t="n">
-        <v>2489.776094089123</v>
+        <v>2780.101540447523</v>
       </c>
       <c r="AC17" t="n">
-        <v>2252.155358091951</v>
+        <v>2514.77255132423</v>
       </c>
       <c r="AD17" t="n">
-        <v>1819687.045141422</v>
+        <v>2031875.384031615</v>
       </c>
       <c r="AE17" t="n">
-        <v>2489776.094089123</v>
+        <v>2780101.540447523</v>
       </c>
       <c r="AF17" t="n">
         <v>4.16475842452476e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>43</v>
+        <v>42.325</v>
       </c>
       <c r="AH17" t="n">
-        <v>2252155.358091951</v>
+        <v>2514772.55132423</v>
       </c>
     </row>
     <row r="18">
@@ -20744,28 +20744,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1826.068841038327</v>
+        <v>2038.25717992852</v>
       </c>
       <c r="AB18" t="n">
-        <v>2498.507948780233</v>
+        <v>2788.833395138633</v>
       </c>
       <c r="AC18" t="n">
-        <v>2260.053856826577</v>
+        <v>2522.671050058855</v>
       </c>
       <c r="AD18" t="n">
-        <v>1826068.841038327</v>
+        <v>2038257.17992852</v>
       </c>
       <c r="AE18" t="n">
-        <v>2498507.948780233</v>
+        <v>2788833.395138633</v>
       </c>
       <c r="AF18" t="n">
         <v>4.164335391673107e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>43</v>
+        <v>42.32916666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>2260053.856826577</v>
+        <v>2522671.050058855</v>
       </c>
     </row>
   </sheetData>
@@ -21041,28 +21041,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10891.01082992797</v>
+        <v>11466.91559730113</v>
       </c>
       <c r="AB2" t="n">
-        <v>14901.56149499572</v>
+        <v>15689.53980484091</v>
       </c>
       <c r="AC2" t="n">
-        <v>13479.37738038568</v>
+        <v>14192.15214627372</v>
       </c>
       <c r="AD2" t="n">
-        <v>10891010.82992797</v>
+        <v>11466915.59730113</v>
       </c>
       <c r="AE2" t="n">
-        <v>14901561.49499572</v>
+        <v>15689539.80484091</v>
       </c>
       <c r="AF2" t="n">
         <v>1.398642404986336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>115</v>
+        <v>114.575</v>
       </c>
       <c r="AH2" t="n">
-        <v>13479377.38038568</v>
+        <v>14192152.14627372</v>
       </c>
     </row>
     <row r="3">
@@ -21147,28 +21147,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4021.035188399705</v>
+        <v>4343.106246376812</v>
       </c>
       <c r="AB3" t="n">
-        <v>5501.757740321353</v>
+        <v>5942.42957061793</v>
       </c>
       <c r="AC3" t="n">
-        <v>4976.677703350361</v>
+        <v>5375.292432650215</v>
       </c>
       <c r="AD3" t="n">
-        <v>4021035.188399706</v>
+        <v>4343106.246376812</v>
       </c>
       <c r="AE3" t="n">
-        <v>5501757.740321353</v>
+        <v>5942429.57061793</v>
       </c>
       <c r="AF3" t="n">
         <v>2.5442447488011e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>63</v>
+        <v>62.98333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4976677.703350361</v>
+        <v>5375292.432650215</v>
       </c>
     </row>
     <row r="4">
@@ -21253,28 +21253,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3151.113966564888</v>
+        <v>3424.40501507692</v>
       </c>
       <c r="AB4" t="n">
-        <v>4311.49314639118</v>
+        <v>4685.4220157155</v>
       </c>
       <c r="AC4" t="n">
-        <v>3900.010291718079</v>
+        <v>4238.251914566537</v>
       </c>
       <c r="AD4" t="n">
-        <v>3151113.966564888</v>
+        <v>3424405.01507692</v>
       </c>
       <c r="AE4" t="n">
-        <v>4311493.146391179</v>
+        <v>4685422.0157155</v>
       </c>
       <c r="AF4" t="n">
         <v>2.969951964176374e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.95</v>
       </c>
       <c r="AH4" t="n">
-        <v>3900010.291718079</v>
+        <v>4238251.914566537</v>
       </c>
     </row>
     <row r="5">
@@ -21359,28 +21359,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2820.584209344122</v>
+        <v>3074.282268094907</v>
       </c>
       <c r="AB5" t="n">
-        <v>3859.247750617956</v>
+        <v>4206.368626969234</v>
       </c>
       <c r="AC5" t="n">
-        <v>3490.926561787069</v>
+        <v>3804.918708886578</v>
       </c>
       <c r="AD5" t="n">
-        <v>2820584.209344122</v>
+        <v>3074282.268094907</v>
       </c>
       <c r="AE5" t="n">
-        <v>3859247.750617956</v>
+        <v>4206368.626969234</v>
       </c>
       <c r="AF5" t="n">
         <v>3.192611835632819e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>51</v>
+        <v>50.1875</v>
       </c>
       <c r="AH5" t="n">
-        <v>3490926.561787069</v>
+        <v>3804918.708886578</v>
       </c>
     </row>
     <row r="6">
@@ -21465,28 +21465,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2635.476668993055</v>
+        <v>2869.717388627859</v>
       </c>
       <c r="AB6" t="n">
-        <v>3605.975447541284</v>
+        <v>3926.473934116856</v>
       </c>
       <c r="AC6" t="n">
-        <v>3261.826211846134</v>
+        <v>3551.736772685374</v>
       </c>
       <c r="AD6" t="n">
-        <v>2635476.668993055</v>
+        <v>2869717.388627859</v>
       </c>
       <c r="AE6" t="n">
-        <v>3605975.447541284</v>
+        <v>3926473.934116856</v>
       </c>
       <c r="AF6" t="n">
         <v>3.332591443940498e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>49</v>
+        <v>48.07916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3261826.211846134</v>
+        <v>3551736.772685374</v>
       </c>
     </row>
     <row r="7">
@@ -21571,28 +21571,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2507.454597597904</v>
+        <v>2741.728471621632</v>
       </c>
       <c r="AB7" t="n">
-        <v>3430.81000152325</v>
+        <v>3751.353851396417</v>
       </c>
       <c r="AC7" t="n">
-        <v>3103.378310149821</v>
+        <v>3393.329904877199</v>
       </c>
       <c r="AD7" t="n">
-        <v>2507454.597597905</v>
+        <v>2741728.471621632</v>
       </c>
       <c r="AE7" t="n">
-        <v>3430810.00152325</v>
+        <v>3751353.851396417</v>
       </c>
       <c r="AF7" t="n">
         <v>3.430654081628569e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.70416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3103378.310149821</v>
+        <v>3393329.904877199</v>
       </c>
     </row>
     <row r="8">
@@ -21677,28 +21677,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2424.937684905427</v>
+        <v>2659.177393510374</v>
       </c>
       <c r="AB8" t="n">
-        <v>3317.906721188133</v>
+        <v>3638.403824428053</v>
       </c>
       <c r="AC8" t="n">
-        <v>3001.250360429143</v>
+        <v>3291.159669956342</v>
       </c>
       <c r="AD8" t="n">
-        <v>2424937.684905427</v>
+        <v>2659177.393510374</v>
       </c>
       <c r="AE8" t="n">
-        <v>3317906.721188134</v>
+        <v>3638403.824428053</v>
       </c>
       <c r="AF8" t="n">
         <v>3.49795197023803e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.80833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>3001250.360429143</v>
+        <v>3291159.669956341</v>
       </c>
     </row>
     <row r="9">
@@ -21783,28 +21783,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2367.955196819707</v>
+        <v>2592.39891605896</v>
       </c>
       <c r="AB9" t="n">
-        <v>3239.940767099296</v>
+        <v>3547.03456552052</v>
       </c>
       <c r="AC9" t="n">
-        <v>2930.725367572642</v>
+        <v>3208.510564881387</v>
       </c>
       <c r="AD9" t="n">
-        <v>2367955.196819707</v>
+        <v>2592398.91605896</v>
       </c>
       <c r="AE9" t="n">
-        <v>3239940.767099296</v>
+        <v>3547034.56552052</v>
       </c>
       <c r="AF9" t="n">
         <v>3.551405721762116e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.11666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2930725.367572642</v>
+        <v>3208510.564881387</v>
       </c>
     </row>
     <row r="10">
@@ -21889,28 +21889,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2313.09692819866</v>
+        <v>2537.607967245617</v>
       </c>
       <c r="AB10" t="n">
-        <v>3164.88126379597</v>
+        <v>3472.067172148036</v>
       </c>
       <c r="AC10" t="n">
-        <v>2862.829437917914</v>
+        <v>3140.697954314978</v>
       </c>
       <c r="AD10" t="n">
-        <v>2313096.92819866</v>
+        <v>2537607.967245617</v>
       </c>
       <c r="AE10" t="n">
-        <v>3164881.26379597</v>
+        <v>3472067.172148036</v>
       </c>
       <c r="AF10" t="n">
         <v>3.59293813301824e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.59583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2862829.437917914</v>
+        <v>3140697.954314978</v>
       </c>
     </row>
     <row r="11">
@@ -21995,28 +21995,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2274.053601914401</v>
+        <v>2488.768651595663</v>
       </c>
       <c r="AB11" t="n">
-        <v>3111.460462303854</v>
+        <v>3405.243065837225</v>
       </c>
       <c r="AC11" t="n">
-        <v>2814.507042743642</v>
+        <v>3080.251446922251</v>
       </c>
       <c r="AD11" t="n">
-        <v>2274053.601914401</v>
+        <v>2488768.651595663</v>
       </c>
       <c r="AE11" t="n">
-        <v>3111460.462303854</v>
+        <v>3405243.065837225</v>
       </c>
       <c r="AF11" t="n">
         <v>3.627548475731677e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.17083333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>2814507.042743642</v>
+        <v>3080251.446922251</v>
       </c>
     </row>
     <row r="12">
@@ -22101,28 +22101,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2236.126794432861</v>
+        <v>2460.603668061038</v>
       </c>
       <c r="AB12" t="n">
-        <v>3059.567331094951</v>
+        <v>3366.70649281377</v>
       </c>
       <c r="AC12" t="n">
-        <v>2767.566519144852</v>
+        <v>3045.392750341736</v>
       </c>
       <c r="AD12" t="n">
-        <v>2236126.794432861</v>
+        <v>2460603.668061038</v>
       </c>
       <c r="AE12" t="n">
-        <v>3059567.331094951</v>
+        <v>3366706.49281377</v>
       </c>
       <c r="AF12" t="n">
         <v>3.651775715631083e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.875</v>
       </c>
       <c r="AH12" t="n">
-        <v>2767566.519144853</v>
+        <v>3045392.750341736</v>
       </c>
     </row>
     <row r="13">
@@ -22207,28 +22207,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2205.260072600835</v>
+        <v>2429.736946229012</v>
       </c>
       <c r="AB13" t="n">
-        <v>3017.334120540711</v>
+        <v>3324.47328225953</v>
       </c>
       <c r="AC13" t="n">
-        <v>2729.363986931228</v>
+        <v>3007.190218128111</v>
       </c>
       <c r="AD13" t="n">
-        <v>2205260.072600835</v>
+        <v>2429736.946229012</v>
       </c>
       <c r="AE13" t="n">
-        <v>3017334.120540711</v>
+        <v>3324473.28225953</v>
       </c>
       <c r="AF13" t="n">
         <v>3.677541192984419e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.57083333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2729363.986931228</v>
+        <v>3007190.218128111</v>
       </c>
     </row>
     <row r="14">
@@ -22313,28 +22313,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2180.054233797198</v>
+        <v>2394.735118059682</v>
       </c>
       <c r="AB14" t="n">
-        <v>2982.846379886274</v>
+        <v>3276.582236786573</v>
       </c>
       <c r="AC14" t="n">
-        <v>2698.167707841115</v>
+        <v>2963.869826819591</v>
       </c>
       <c r="AD14" t="n">
-        <v>2180054.233797198</v>
+        <v>2394735.118059682</v>
       </c>
       <c r="AE14" t="n">
-        <v>2982846.379886274</v>
+        <v>3276582.236786573</v>
       </c>
       <c r="AF14" t="n">
         <v>3.697153720522034e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>44</v>
+        <v>43.34166666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>2698167.707841116</v>
+        <v>2963869.826819591</v>
       </c>
     </row>
     <row r="15">
@@ -22419,28 +22419,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2157.532790631632</v>
+        <v>2372.213674894116</v>
       </c>
       <c r="AB15" t="n">
-        <v>2952.031547771198</v>
+        <v>3245.767404671495</v>
       </c>
       <c r="AC15" t="n">
-        <v>2670.293800054214</v>
+        <v>2935.995919032688</v>
       </c>
       <c r="AD15" t="n">
-        <v>2157532.790631632</v>
+        <v>2372213.674894116</v>
       </c>
       <c r="AE15" t="n">
-        <v>2952031.547771198</v>
+        <v>3245767.404671495</v>
       </c>
       <c r="AF15" t="n">
         <v>3.712151535697856e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>44</v>
+        <v>43.1625</v>
       </c>
       <c r="AH15" t="n">
-        <v>2670293.800054214</v>
+        <v>2935995.919032688</v>
       </c>
     </row>
     <row r="16">
@@ -22525,28 +22525,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2126.907529330243</v>
+        <v>2351.35023753964</v>
       </c>
       <c r="AB16" t="n">
-        <v>2910.128714167463</v>
+        <v>3217.221129253204</v>
       </c>
       <c r="AC16" t="n">
-        <v>2632.390114078623</v>
+        <v>2910.174060075371</v>
       </c>
       <c r="AD16" t="n">
-        <v>2126907.529330243</v>
+        <v>2351350.23753964</v>
       </c>
       <c r="AE16" t="n">
-        <v>2910128.714167464</v>
+        <v>3217221.129253204</v>
       </c>
       <c r="AF16" t="n">
         <v>3.727149350873679e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>43</v>
+        <v>42.99166666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>2632390.114078623</v>
+        <v>2910174.060075371</v>
       </c>
     </row>
     <row r="17">
@@ -22631,28 +22631,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2105.104295298391</v>
+        <v>2319.852499368579</v>
       </c>
       <c r="AB17" t="n">
-        <v>2880.296567474286</v>
+        <v>3174.12453430542</v>
       </c>
       <c r="AC17" t="n">
-        <v>2605.405105596161</v>
+        <v>2871.190543662954</v>
       </c>
       <c r="AD17" t="n">
-        <v>2105104.295298391</v>
+        <v>2319852.499368579</v>
       </c>
       <c r="AE17" t="n">
-        <v>2880296.567474286</v>
+        <v>3174124.53430542</v>
       </c>
       <c r="AF17" t="n">
         <v>3.742531725412984e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>43</v>
+        <v>42.8125</v>
       </c>
       <c r="AH17" t="n">
-        <v>2605405.105596161</v>
+        <v>2871190.543662954</v>
       </c>
     </row>
     <row r="18">
@@ -22737,28 +22737,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2088.0146345897</v>
+        <v>2302.762838659888</v>
       </c>
       <c r="AB18" t="n">
-        <v>2856.913739750034</v>
+        <v>3150.741706581167</v>
       </c>
       <c r="AC18" t="n">
-        <v>2584.253902131908</v>
+        <v>2850.0393401987</v>
       </c>
       <c r="AD18" t="n">
-        <v>2088014.6345897</v>
+        <v>2302762.838659888</v>
       </c>
       <c r="AE18" t="n">
-        <v>2856913.739750034</v>
+        <v>3150741.706581167</v>
       </c>
       <c r="AF18" t="n">
         <v>3.751761150136568e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>43</v>
+        <v>42.70833333333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>2584253.902131908</v>
+        <v>2850039.3401987</v>
       </c>
     </row>
     <row r="19">
@@ -22843,28 +22843,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2069.461221218968</v>
+        <v>2284.209425289157</v>
       </c>
       <c r="AB19" t="n">
-        <v>2831.528141057369</v>
+        <v>3125.3561078885</v>
       </c>
       <c r="AC19" t="n">
-        <v>2561.29106934956</v>
+        <v>2827.076507416351</v>
       </c>
       <c r="AD19" t="n">
-        <v>2069461.221218968</v>
+        <v>2284209.425289156</v>
       </c>
       <c r="AE19" t="n">
-        <v>2831528.141057369</v>
+        <v>3125356.107888501</v>
       </c>
       <c r="AF19" t="n">
         <v>3.763297931041047e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>43</v>
+        <v>42.575</v>
       </c>
       <c r="AH19" t="n">
-        <v>2561291.069349559</v>
+        <v>2827076.507416351</v>
       </c>
     </row>
     <row r="20">
@@ -22949,28 +22949,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2052.459378993378</v>
+        <v>2267.106097837081</v>
       </c>
       <c r="AB20" t="n">
-        <v>2808.265470455975</v>
+        <v>3101.954580723016</v>
       </c>
       <c r="AC20" t="n">
-        <v>2540.248555380999</v>
+        <v>2805.908389159291</v>
       </c>
       <c r="AD20" t="n">
-        <v>2052459.378993378</v>
+        <v>2267106.097837081</v>
       </c>
       <c r="AE20" t="n">
-        <v>2808265.470455975</v>
+        <v>3101954.580723016</v>
       </c>
       <c r="AF20" t="n">
         <v>3.772911915128112e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>43</v>
+        <v>42.46666666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>2540248.555380999</v>
+        <v>2805908.389159292</v>
       </c>
     </row>
     <row r="21">
@@ -23055,28 +23055,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2035.858501899221</v>
+        <v>2250.505220742924</v>
       </c>
       <c r="AB21" t="n">
-        <v>2785.551418036741</v>
+        <v>3079.240528303781</v>
       </c>
       <c r="AC21" t="n">
-        <v>2519.702300245284</v>
+        <v>2785.362134023576</v>
       </c>
       <c r="AD21" t="n">
-        <v>2035858.501899221</v>
+        <v>2250505.220742924</v>
       </c>
       <c r="AE21" t="n">
-        <v>2785551.418036741</v>
+        <v>3079240.528303781</v>
       </c>
       <c r="AF21" t="n">
         <v>3.779064864943834e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>43</v>
+        <v>42.4</v>
       </c>
       <c r="AH21" t="n">
-        <v>2519702.300245284</v>
+        <v>2785362.134023576</v>
       </c>
     </row>
     <row r="22">
@@ -23161,28 +23161,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2019.71223161453</v>
+        <v>2234.358950458233</v>
       </c>
       <c r="AB22" t="n">
-        <v>2763.459378710056</v>
+        <v>3057.148488977093</v>
       </c>
       <c r="AC22" t="n">
-        <v>2499.718694145565</v>
+        <v>2765.378527923856</v>
       </c>
       <c r="AD22" t="n">
-        <v>2019712.23161453</v>
+        <v>2234358.950458233</v>
       </c>
       <c r="AE22" t="n">
-        <v>2763459.378710056</v>
+        <v>3057148.488977093</v>
       </c>
       <c r="AF22" t="n">
         <v>3.788294289667418e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>43</v>
+        <v>42.29583333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>2499718.694145565</v>
+        <v>2765378.527923856</v>
       </c>
     </row>
     <row r="23">
@@ -23267,28 +23267,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>2006.407145690509</v>
+        <v>2211.359360395002</v>
       </c>
       <c r="AB23" t="n">
-        <v>2745.254773169846</v>
+        <v>3025.679435182277</v>
       </c>
       <c r="AC23" t="n">
-        <v>2483.251510607789</v>
+        <v>2736.912836456125</v>
       </c>
       <c r="AD23" t="n">
-        <v>2006407.145690509</v>
+        <v>2211359.360395002</v>
       </c>
       <c r="AE23" t="n">
-        <v>2745254.773169845</v>
+        <v>3025679.435182277</v>
       </c>
       <c r="AF23" t="n">
         <v>3.793678120756175e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>43</v>
+        <v>42.2375</v>
       </c>
       <c r="AH23" t="n">
-        <v>2483251.510607788</v>
+        <v>2736912.836456125</v>
       </c>
     </row>
     <row r="24">
@@ -23373,28 +23373,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>2001.119649157972</v>
+        <v>2206.071863862466</v>
       </c>
       <c r="AB24" t="n">
-        <v>2738.020187146145</v>
+        <v>3018.444849158577</v>
       </c>
       <c r="AC24" t="n">
-        <v>2476.707383320384</v>
+        <v>2730.368709168721</v>
       </c>
       <c r="AD24" t="n">
-        <v>2001119.649157972</v>
+        <v>2206071.863862466</v>
       </c>
       <c r="AE24" t="n">
-        <v>2738020.187146145</v>
+        <v>3018444.849158577</v>
       </c>
       <c r="AF24" t="n">
         <v>3.796370036300553e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>43</v>
+        <v>42.20833333333334</v>
       </c>
       <c r="AH24" t="n">
-        <v>2476707.383320385</v>
+        <v>2730368.709168721</v>
       </c>
     </row>
     <row r="25">
@@ -23479,28 +23479,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>2007.567328334462</v>
+        <v>2212.519543038954</v>
       </c>
       <c r="AB25" t="n">
-        <v>2746.842186246947</v>
+        <v>3027.266848259379</v>
       </c>
       <c r="AC25" t="n">
-        <v>2484.68742320876</v>
+        <v>2738.348749057096</v>
       </c>
       <c r="AD25" t="n">
-        <v>2007567.328334461</v>
+        <v>2212519.543038954</v>
       </c>
       <c r="AE25" t="n">
-        <v>2746842.186246947</v>
+        <v>3027266.848259379</v>
       </c>
       <c r="AF25" t="n">
         <v>3.795600917573588e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>43</v>
+        <v>42.2125</v>
       </c>
       <c r="AH25" t="n">
-        <v>2484687.42320876</v>
+        <v>2738348.749057096</v>
       </c>
     </row>
   </sheetData>
@@ -23776,28 +23776,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4351.612574918097</v>
+        <v>4713.227119862662</v>
       </c>
       <c r="AB2" t="n">
-        <v>5954.068304600848</v>
+        <v>6448.845278301825</v>
       </c>
       <c r="AC2" t="n">
-        <v>5385.820382196868</v>
+        <v>5833.376535951648</v>
       </c>
       <c r="AD2" t="n">
-        <v>4351612.574918098</v>
+        <v>4713227.119862663</v>
       </c>
       <c r="AE2" t="n">
-        <v>5954068.304600848</v>
+        <v>6448845.278301825</v>
       </c>
       <c r="AF2" t="n">
         <v>2.690449551447083e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>75</v>
+        <v>74.2375</v>
       </c>
       <c r="AH2" t="n">
-        <v>5385820.382196868</v>
+        <v>5833376.535951648</v>
       </c>
     </row>
     <row r="3">
@@ -23882,28 +23882,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2503.821016909177</v>
+        <v>2760.752565391256</v>
       </c>
       <c r="AB3" t="n">
-        <v>3425.838376122666</v>
+        <v>3777.3834557758</v>
       </c>
       <c r="AC3" t="n">
-        <v>3098.881169699749</v>
+        <v>3416.875280347392</v>
       </c>
       <c r="AD3" t="n">
-        <v>2503821.016909176</v>
+        <v>2760752.565391256</v>
       </c>
       <c r="AE3" t="n">
-        <v>3425838.376122666</v>
+        <v>3777383.4557758</v>
       </c>
       <c r="AF3" t="n">
         <v>3.764328203485833e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.06666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3098881.169699749</v>
+        <v>3416875.280347392</v>
       </c>
     </row>
     <row r="4">
@@ -23988,28 +23988,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2135.321526587053</v>
+        <v>2373.179425671941</v>
       </c>
       <c r="AB4" t="n">
-        <v>2921.641116413592</v>
+        <v>3247.088787491633</v>
       </c>
       <c r="AC4" t="n">
-        <v>2642.803788812139</v>
+        <v>2937.191190931044</v>
       </c>
       <c r="AD4" t="n">
-        <v>2135321.526587053</v>
+        <v>2373179.425671941</v>
       </c>
       <c r="AE4" t="n">
-        <v>2921641.116413592</v>
+        <v>3247088.787491633</v>
       </c>
       <c r="AF4" t="n">
         <v>4.142103372149465e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.22499999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>2642803.788812139</v>
+        <v>2937191.190931044</v>
       </c>
     </row>
     <row r="5">
@@ -24094,28 +24094,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1971.810475690789</v>
+        <v>2190.697221634827</v>
       </c>
       <c r="AB5" t="n">
-        <v>2697.91808297887</v>
+        <v>2997.408585381375</v>
       </c>
       <c r="AC5" t="n">
-        <v>2440.432567691177</v>
+        <v>2711.340116881835</v>
       </c>
       <c r="AD5" t="n">
-        <v>1971810.475690789</v>
+        <v>2190697.221634827</v>
       </c>
       <c r="AE5" t="n">
-        <v>2697918.08297887</v>
+        <v>2997408.585381375</v>
       </c>
       <c r="AF5" t="n">
         <v>4.335785057606453e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.06666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2440432.567691177</v>
+        <v>2711340.116881835</v>
       </c>
     </row>
     <row r="6">
@@ -24200,28 +24200,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1865.429593584236</v>
+        <v>2084.349493917195</v>
       </c>
       <c r="AB6" t="n">
-        <v>2552.363066887393</v>
+        <v>2851.898932587318</v>
       </c>
       <c r="AC6" t="n">
-        <v>2308.769118047723</v>
+        <v>2579.717701126475</v>
       </c>
       <c r="AD6" t="n">
-        <v>1865429.593584236</v>
+        <v>2084349.493917194</v>
       </c>
       <c r="AE6" t="n">
-        <v>2552363.066887393</v>
+        <v>2851898.932587318</v>
       </c>
       <c r="AF6" t="n">
         <v>4.455158175623261e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.83333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2308769.118047723</v>
+        <v>2579717.701126475</v>
       </c>
     </row>
     <row r="7">
@@ -24306,28 +24306,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1802.030641090326</v>
+        <v>2011.397645045155</v>
       </c>
       <c r="AB7" t="n">
-        <v>2465.617823120841</v>
+        <v>2752.082994552165</v>
       </c>
       <c r="AC7" t="n">
-        <v>2230.302718598536</v>
+        <v>2489.428056124847</v>
       </c>
       <c r="AD7" t="n">
-        <v>1802030.641090326</v>
+        <v>2011397.645045155</v>
       </c>
       <c r="AE7" t="n">
-        <v>2465617.823120841</v>
+        <v>2752082.994552165</v>
       </c>
       <c r="AF7" t="n">
         <v>4.536657894751201e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.03333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2230302.718598536</v>
+        <v>2489428.056124847</v>
       </c>
     </row>
     <row r="8">
@@ -24412,28 +24412,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1743.865288210524</v>
+        <v>1953.198126746572</v>
       </c>
       <c r="AB8" t="n">
-        <v>2386.033421236432</v>
+        <v>2672.451846034508</v>
       </c>
       <c r="AC8" t="n">
-        <v>2158.313740332566</v>
+        <v>2417.396792658697</v>
       </c>
       <c r="AD8" t="n">
-        <v>1743865.288210524</v>
+        <v>1953198.126746572</v>
       </c>
       <c r="AE8" t="n">
-        <v>2386033.421236432</v>
+        <v>2672451.846034508</v>
       </c>
       <c r="AF8" t="n">
         <v>4.592269467803208e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>2158313.740332566</v>
+        <v>2417396.792658697</v>
       </c>
     </row>
     <row r="9">
@@ -24518,28 +24518,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1701.536824800091</v>
+        <v>1910.869663336139</v>
       </c>
       <c r="AB9" t="n">
-        <v>2328.117750198266</v>
+        <v>2614.536174996342</v>
       </c>
       <c r="AC9" t="n">
-        <v>2105.925459653127</v>
+        <v>2365.008511979258</v>
       </c>
       <c r="AD9" t="n">
-        <v>1701536.824800091</v>
+        <v>1910869.663336139</v>
       </c>
       <c r="AE9" t="n">
-        <v>2328117.750198266</v>
+        <v>2614536.174996342</v>
       </c>
       <c r="AF9" t="n">
         <v>4.6363751981548e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.0875</v>
       </c>
       <c r="AH9" t="n">
-        <v>2105925.459653127</v>
+        <v>2365008.511979259</v>
       </c>
     </row>
     <row r="10">
@@ -24624,28 +24624,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1654.766468960913</v>
+        <v>1864.166627304665</v>
       </c>
       <c r="AB10" t="n">
-        <v>2264.124485976628</v>
+        <v>2550.635020705545</v>
       </c>
       <c r="AC10" t="n">
-        <v>2048.039622753692</v>
+        <v>2307.205994168142</v>
       </c>
       <c r="AD10" t="n">
-        <v>1654766.468960913</v>
+        <v>1864166.627304665</v>
       </c>
       <c r="AE10" t="n">
-        <v>2264124.485976628</v>
+        <v>2550635.020705545</v>
       </c>
       <c r="AF10" t="n">
         <v>4.67185154648108e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>43</v>
+        <v>42.75833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2048039.622753692</v>
+        <v>2307205.994168142</v>
       </c>
     </row>
     <row r="11">
@@ -24730,28 +24730,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1635.738954495916</v>
+        <v>1845.139112839669</v>
       </c>
       <c r="AB11" t="n">
-        <v>2238.090201250925</v>
+        <v>2524.600735979842</v>
       </c>
       <c r="AC11" t="n">
-        <v>2024.490013622862</v>
+        <v>2283.656385037312</v>
       </c>
       <c r="AD11" t="n">
-        <v>1635738.954495916</v>
+        <v>1845139.112839669</v>
       </c>
       <c r="AE11" t="n">
-        <v>2238090.201250925</v>
+        <v>2524600.735979842</v>
       </c>
       <c r="AF11" t="n">
         <v>4.688630900419185e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>43</v>
+        <v>42.60416666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>2024490.013622862</v>
+        <v>2283656.385037312</v>
       </c>
     </row>
     <row r="12">
@@ -24836,28 +24836,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1641.57555886094</v>
+        <v>1850.975717204692</v>
       </c>
       <c r="AB12" t="n">
-        <v>2246.076100835963</v>
+        <v>2532.58663556488</v>
       </c>
       <c r="AC12" t="n">
-        <v>2031.713750159784</v>
+        <v>2290.880121574234</v>
       </c>
       <c r="AD12" t="n">
-        <v>1641575.55886094</v>
+        <v>1850975.717204692</v>
       </c>
       <c r="AE12" t="n">
-        <v>2246076.100835963</v>
+        <v>2532586.63556488</v>
       </c>
       <c r="AF12" t="n">
         <v>4.688151490306668e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>43</v>
+        <v>42.60833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2031713.750159784</v>
+        <v>2290880.121574234</v>
       </c>
     </row>
   </sheetData>
@@ -25133,28 +25133,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3055.400106516237</v>
+        <v>3365.495257036317</v>
       </c>
       <c r="AB2" t="n">
-        <v>4180.533220475119</v>
+        <v>4604.819085849241</v>
       </c>
       <c r="AC2" t="n">
-        <v>3781.548997328041</v>
+        <v>4165.341615199793</v>
       </c>
       <c r="AD2" t="n">
-        <v>3055400.106516237</v>
+        <v>3365495.257036317</v>
       </c>
       <c r="AE2" t="n">
-        <v>4180533.220475119</v>
+        <v>4604819.08584924</v>
       </c>
       <c r="AF2" t="n">
         <v>3.538389877871478e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.19583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3781548.997328042</v>
+        <v>4165341.615199793</v>
       </c>
     </row>
     <row r="3">
@@ -25239,28 +25239,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1997.820099685029</v>
+        <v>2242.176036432288</v>
       </c>
       <c r="AB3" t="n">
-        <v>2733.505597991415</v>
+        <v>3067.844170872288</v>
       </c>
       <c r="AC3" t="n">
-        <v>2472.623660218316</v>
+        <v>2775.053428950459</v>
       </c>
       <c r="AD3" t="n">
-        <v>1997820.099685029</v>
+        <v>2242176.036432288</v>
       </c>
       <c r="AE3" t="n">
-        <v>2733505.597991415</v>
+        <v>3067844.170872288</v>
       </c>
       <c r="AF3" t="n">
         <v>4.559404242569256e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2472623.660218316</v>
+        <v>2775053.428950458</v>
       </c>
     </row>
     <row r="4">
@@ -25345,28 +25345,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1755.997400849879</v>
+        <v>1981.484151052136</v>
       </c>
       <c r="AB4" t="n">
-        <v>2402.633112980632</v>
+        <v>2711.154032380701</v>
       </c>
       <c r="AC4" t="n">
-        <v>2173.329180794513</v>
+        <v>2452.405296658869</v>
       </c>
       <c r="AD4" t="n">
-        <v>1755997.400849879</v>
+        <v>1981484.151052136</v>
       </c>
       <c r="AE4" t="n">
-        <v>2402633.112980632</v>
+        <v>2711154.032380701</v>
       </c>
       <c r="AF4" t="n">
         <v>4.913188718110558e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.22916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2173329.180794513</v>
+        <v>2452405.296658869</v>
       </c>
     </row>
     <row r="5">
@@ -25451,28 +25451,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1630.10525496699</v>
+        <v>1846.292557027086</v>
       </c>
       <c r="AB5" t="n">
-        <v>2230.381925014166</v>
+        <v>2526.178929203433</v>
       </c>
       <c r="AC5" t="n">
-        <v>2017.517404451507</v>
+        <v>2285.083957714652</v>
       </c>
       <c r="AD5" t="n">
-        <v>1630105.25496699</v>
+        <v>1846292.557027086</v>
       </c>
       <c r="AE5" t="n">
-        <v>2230381.925014167</v>
+        <v>2526178.929203433</v>
       </c>
       <c r="AF5" t="n">
         <v>5.094169374319667e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.58750000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>2017517.404451507</v>
+        <v>2285083.957714652</v>
       </c>
     </row>
     <row r="6">
@@ -25557,28 +25557,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1548.378517344611</v>
+        <v>1764.531653985926</v>
       </c>
       <c r="AB6" t="n">
-        <v>2118.559797070029</v>
+        <v>2414.310054626048</v>
       </c>
       <c r="AC6" t="n">
-        <v>1916.367423455015</v>
+        <v>2183.891691517981</v>
       </c>
       <c r="AD6" t="n">
-        <v>1548378.517344611</v>
+        <v>1764531.653985926</v>
       </c>
       <c r="AE6" t="n">
-        <v>2118559.797070029</v>
+        <v>2414310.054626048</v>
       </c>
       <c r="AF6" t="n">
         <v>5.205374355845747e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.6375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1916367.423455015</v>
+        <v>2183891.691517981</v>
       </c>
     </row>
     <row r="7">
@@ -25663,28 +25663,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1495.967243823567</v>
+        <v>1702.686292707312</v>
       </c>
       <c r="AB7" t="n">
-        <v>2046.848380416338</v>
+        <v>2329.690502899871</v>
       </c>
       <c r="AC7" t="n">
-        <v>1851.500043759147</v>
+        <v>2107.348111044264</v>
       </c>
       <c r="AD7" t="n">
-        <v>1495967.243823567</v>
+        <v>1702686.292707312</v>
       </c>
       <c r="AE7" t="n">
-        <v>2046848.380416338</v>
+        <v>2329690.502899871</v>
       </c>
       <c r="AF7" t="n">
         <v>5.27187929577801e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.0875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1851500.043759147</v>
+        <v>2107348.111044263</v>
       </c>
     </row>
     <row r="8">
@@ -25769,28 +25769,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1497.662713238291</v>
+        <v>1704.381762122036</v>
       </c>
       <c r="AB8" t="n">
-        <v>2049.168196468396</v>
+        <v>2332.010318951928</v>
       </c>
       <c r="AC8" t="n">
-        <v>1853.598459823078</v>
+        <v>2109.446527108195</v>
       </c>
       <c r="AD8" t="n">
-        <v>1497662.713238291</v>
+        <v>1704381.762122036</v>
       </c>
       <c r="AE8" t="n">
-        <v>2049168.196468396</v>
+        <v>2332010.318951928</v>
       </c>
       <c r="AF8" t="n">
         <v>5.279511010196467e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.02083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1853598.459823078</v>
+        <v>2109446.527108195</v>
       </c>
     </row>
   </sheetData>
@@ -48279,28 +48279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2339.845326996257</v>
+        <v>2618.88869888056</v>
       </c>
       <c r="AB2" t="n">
-        <v>3201.479603086915</v>
+        <v>3583.279055023775</v>
       </c>
       <c r="AC2" t="n">
-        <v>2895.934883073022</v>
+        <v>3241.29593117591</v>
       </c>
       <c r="AD2" t="n">
-        <v>2339845.326996257</v>
+        <v>2618888.69888056</v>
       </c>
       <c r="AE2" t="n">
-        <v>3201479.603086915</v>
+        <v>3583279.055023775</v>
       </c>
       <c r="AF2" t="n">
         <v>4.382097725198825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.21250000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>2895934.883073022</v>
+        <v>3241295.93117591</v>
       </c>
     </row>
     <row r="3">
@@ -48385,28 +48385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1659.957410854172</v>
+        <v>1892.538265457918</v>
       </c>
       <c r="AB3" t="n">
-        <v>2271.226961683179</v>
+        <v>2589.454347695163</v>
       </c>
       <c r="AC3" t="n">
-        <v>2054.464248147197</v>
+        <v>2342.320459073138</v>
       </c>
       <c r="AD3" t="n">
-        <v>1659957.410854172</v>
+        <v>1892538.265457918</v>
       </c>
       <c r="AE3" t="n">
-        <v>2271226.961683179</v>
+        <v>2589454.347695163</v>
       </c>
       <c r="AF3" t="n">
         <v>5.354264697483784e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.64166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2054464.248147198</v>
+        <v>2342320.459073138</v>
       </c>
     </row>
     <row r="4">
@@ -48491,28 +48491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1472.477780913847</v>
+        <v>1686.480866101069</v>
       </c>
       <c r="AB4" t="n">
-        <v>2014.709060981293</v>
+        <v>2307.517523284245</v>
       </c>
       <c r="AC4" t="n">
-        <v>1822.428055863164</v>
+        <v>2087.291289483181</v>
       </c>
       <c r="AD4" t="n">
-        <v>1472477.780913847</v>
+        <v>1686480.866101069</v>
       </c>
       <c r="AE4" t="n">
-        <v>2014709.060981293</v>
+        <v>2307517.523284245</v>
       </c>
       <c r="AF4" t="n">
         <v>5.688523618685036e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.84166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1822428.055863164</v>
+        <v>2087291.289483181</v>
       </c>
     </row>
     <row r="5">
@@ -48597,28 +48597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1379.51628400965</v>
+        <v>1593.485203778091</v>
       </c>
       <c r="AB5" t="n">
-        <v>1887.515039745173</v>
+        <v>2180.276755414878</v>
       </c>
       <c r="AC5" t="n">
-        <v>1707.373253495889</v>
+        <v>1972.194201915727</v>
       </c>
       <c r="AD5" t="n">
-        <v>1379516.28400965</v>
+        <v>1593485.203778091</v>
       </c>
       <c r="AE5" t="n">
-        <v>1887515.039745173</v>
+        <v>2180276.755414878</v>
       </c>
       <c r="AF5" t="n">
         <v>5.846470141890022e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.62916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1707373.253495889</v>
+        <v>1972194.201915727</v>
       </c>
     </row>
     <row r="6">
@@ -48703,28 +48703,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1384.322683357776</v>
+        <v>1598.291603126218</v>
       </c>
       <c r="AB6" t="n">
-        <v>1894.091367376654</v>
+        <v>2186.853083046358</v>
       </c>
       <c r="AC6" t="n">
-        <v>1713.321945648155</v>
+        <v>1978.142894067993</v>
       </c>
       <c r="AD6" t="n">
-        <v>1384322.683357776</v>
+        <v>1598291.603126218</v>
       </c>
       <c r="AE6" t="n">
-        <v>1894091.367376653</v>
+        <v>2186853.083046358</v>
       </c>
       <c r="AF6" t="n">
         <v>5.850755512674654e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.6</v>
       </c>
       <c r="AH6" t="n">
-        <v>1713321.945648155</v>
+        <v>1978142.894067992</v>
       </c>
     </row>
   </sheetData>
@@ -49000,28 +49000,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1334.211622415868</v>
+        <v>1562.053023494107</v>
       </c>
       <c r="AB2" t="n">
-        <v>1825.527203051953</v>
+        <v>2137.269859660404</v>
       </c>
       <c r="AC2" t="n">
-        <v>1651.301448936195</v>
+        <v>1933.291823931502</v>
       </c>
       <c r="AD2" t="n">
-        <v>1334211.622415868</v>
+        <v>1562053.023494107</v>
       </c>
       <c r="AE2" t="n">
-        <v>1825527.203051953</v>
+        <v>2137269.859660404</v>
       </c>
       <c r="AF2" t="n">
         <v>6.872608514520013e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.09166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1651301.448936195</v>
+        <v>1933291.823931502</v>
       </c>
     </row>
     <row r="3">
@@ -49106,28 +49106,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1187.623531243233</v>
+        <v>1397.263666835874</v>
       </c>
       <c r="AB3" t="n">
-        <v>1624.958909699389</v>
+        <v>1911.797791887285</v>
       </c>
       <c r="AC3" t="n">
-        <v>1469.875112001833</v>
+        <v>1729.338493854615</v>
       </c>
       <c r="AD3" t="n">
-        <v>1187623.531243233</v>
+        <v>1397263.666835874</v>
       </c>
       <c r="AE3" t="n">
-        <v>1624958.909699389</v>
+        <v>1911797.791887285</v>
       </c>
       <c r="AF3" t="n">
         <v>7.323603206153807e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.06666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1469875.112001833</v>
+        <v>1729338.493854615</v>
       </c>
     </row>
   </sheetData>
@@ -49403,28 +49403,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6077.945170988206</v>
+        <v>6501.108668800496</v>
       </c>
       <c r="AB2" t="n">
-        <v>8316.112722963109</v>
+        <v>8895.103689325875</v>
       </c>
       <c r="AC2" t="n">
-        <v>7522.434596420709</v>
+        <v>8046.167477572715</v>
       </c>
       <c r="AD2" t="n">
-        <v>6077945.170988206</v>
+        <v>6501108.668800496</v>
       </c>
       <c r="AE2" t="n">
-        <v>8316112.72296311</v>
+        <v>8895103.689325875</v>
       </c>
       <c r="AF2" t="n">
         <v>2.100039976709779e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>87</v>
+        <v>86.29583333333335</v>
       </c>
       <c r="AH2" t="n">
-        <v>7522434.596420709</v>
+        <v>8046167.477572715</v>
       </c>
     </row>
     <row r="3">
@@ -49509,28 +49509,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3022.633623474209</v>
+        <v>3301.490593403242</v>
       </c>
       <c r="AB3" t="n">
-        <v>4135.700672821804</v>
+        <v>4517.245081379989</v>
       </c>
       <c r="AC3" t="n">
-        <v>3740.995205099885</v>
+        <v>4086.125550806203</v>
       </c>
       <c r="AD3" t="n">
-        <v>3022633.623474209</v>
+        <v>3301490.593403242</v>
       </c>
       <c r="AE3" t="n">
-        <v>4135700.672821804</v>
+        <v>4517245.081379989</v>
       </c>
       <c r="AF3" t="n">
         <v>3.208346078751312e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.49166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3740995.205099884</v>
+        <v>4086125.550806203</v>
       </c>
     </row>
     <row r="4">
@@ -49615,28 +49615,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2506.394488442964</v>
+        <v>2756.390152795345</v>
       </c>
       <c r="AB4" t="n">
-        <v>3429.359513408746</v>
+        <v>3771.414610406015</v>
       </c>
       <c r="AC4" t="n">
-        <v>3102.066254585192</v>
+        <v>3411.476093202372</v>
       </c>
       <c r="AD4" t="n">
-        <v>2506394.488442964</v>
+        <v>2756390.152795346</v>
       </c>
       <c r="AE4" t="n">
-        <v>3429359.513408746</v>
+        <v>3771414.610406015</v>
       </c>
       <c r="AF4" t="n">
         <v>3.605474599616272e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.26666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3102066.254585192</v>
+        <v>3411476.093202373</v>
       </c>
     </row>
     <row r="5">
@@ -49721,28 +49721,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2283.951205446026</v>
+        <v>2524.393754413894</v>
       </c>
       <c r="AB5" t="n">
-        <v>3125.002800107274</v>
+        <v>3453.986903181747</v>
       </c>
       <c r="AC5" t="n">
-        <v>2826.756918833894</v>
+        <v>3124.343240843015</v>
       </c>
       <c r="AD5" t="n">
-        <v>2283951.205446026</v>
+        <v>2524393.754413894</v>
       </c>
       <c r="AE5" t="n">
-        <v>3125002.800107274</v>
+        <v>3453986.903181747</v>
       </c>
       <c r="AF5" t="n">
         <v>3.811650852507828e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.55</v>
       </c>
       <c r="AH5" t="n">
-        <v>2826756.918833894</v>
+        <v>3124343.240843015</v>
       </c>
     </row>
     <row r="6">
@@ -49827,28 +49827,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2162.796192699066</v>
+        <v>2383.99888231236</v>
       </c>
       <c r="AB6" t="n">
-        <v>2959.233166684772</v>
+        <v>3261.892445387793</v>
       </c>
       <c r="AC6" t="n">
-        <v>2676.808106566211</v>
+        <v>2950.582008494659</v>
       </c>
       <c r="AD6" t="n">
-        <v>2162796.192699066</v>
+        <v>2383998.88231236</v>
       </c>
       <c r="AE6" t="n">
-        <v>2959233.166684772</v>
+        <v>3261892.445387793</v>
       </c>
       <c r="AF6" t="n">
         <v>3.939097354822652e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.00833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2676808.106566211</v>
+        <v>2950582.008494659</v>
       </c>
     </row>
     <row r="7">
@@ -49933,28 +49933,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2078.264585261529</v>
+        <v>2299.433109456041</v>
       </c>
       <c r="AB7" t="n">
-        <v>2843.573292117412</v>
+        <v>3146.185824187179</v>
       </c>
       <c r="AC7" t="n">
-        <v>2572.186648097907</v>
+        <v>2845.918264826174</v>
       </c>
       <c r="AD7" t="n">
-        <v>2078264.585261529</v>
+        <v>2299433.109456041</v>
       </c>
       <c r="AE7" t="n">
-        <v>2843573.292117412</v>
+        <v>3146185.824187179</v>
       </c>
       <c r="AF7" t="n">
         <v>4.025221612359631e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.025</v>
       </c>
       <c r="AH7" t="n">
-        <v>2572186.648097907</v>
+        <v>2845918.264826173</v>
       </c>
     </row>
     <row r="8">
@@ -50039,28 +50039,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2011.881072948467</v>
+        <v>2233.0154317242</v>
       </c>
       <c r="AB8" t="n">
-        <v>2752.744441936811</v>
+        <v>3055.310227373324</v>
       </c>
       <c r="AC8" t="n">
-        <v>2490.026375899451</v>
+        <v>2763.715707427536</v>
       </c>
       <c r="AD8" t="n">
-        <v>2011881.072948467</v>
+        <v>2233015.4317242</v>
       </c>
       <c r="AE8" t="n">
-        <v>2752744.441936811</v>
+        <v>3055310.227373324</v>
       </c>
       <c r="AF8" t="n">
         <v>4.08829240702055e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.32916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2490026.37589945</v>
+        <v>2763715.707427536</v>
       </c>
     </row>
     <row r="9">
@@ -50145,28 +50145,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1957.502660228164</v>
+        <v>2178.704338811598</v>
       </c>
       <c r="AB9" t="n">
-        <v>2678.341498646636</v>
+        <v>2980.999394013812</v>
       </c>
       <c r="AC9" t="n">
-        <v>2422.724345091703</v>
+        <v>2696.49699570806</v>
       </c>
       <c r="AD9" t="n">
-        <v>1957502.660228164</v>
+        <v>2178704.338811598</v>
       </c>
       <c r="AE9" t="n">
-        <v>2678341.498646636</v>
+        <v>2980999.394013812</v>
       </c>
       <c r="AF9" t="n">
         <v>4.134399332772671e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.83333333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>2422724.345091703</v>
+        <v>2696496.99570806</v>
       </c>
     </row>
     <row r="10">
@@ -50251,28 +50251,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1919.106837979266</v>
+        <v>2130.654926981559</v>
       </c>
       <c r="AB10" t="n">
-        <v>2625.806640741565</v>
+        <v>2915.25606895751</v>
       </c>
       <c r="AC10" t="n">
-        <v>2375.203340291956</v>
+        <v>2637.028121323795</v>
       </c>
       <c r="AD10" t="n">
-        <v>1919106.837979266</v>
+        <v>2130654.926981559</v>
       </c>
       <c r="AE10" t="n">
-        <v>2625806.640741565</v>
+        <v>2915256.06895751</v>
       </c>
       <c r="AF10" t="n">
         <v>4.173546722562207e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.425</v>
       </c>
       <c r="AH10" t="n">
-        <v>2375203.340291956</v>
+        <v>2637028.121323796</v>
       </c>
     </row>
     <row r="11">
@@ -50357,28 +50357,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1885.211898761743</v>
+        <v>2096.759987764036</v>
       </c>
       <c r="AB11" t="n">
-        <v>2579.430089564969</v>
+        <v>2868.879517780914</v>
       </c>
       <c r="AC11" t="n">
-        <v>2333.252902069756</v>
+        <v>2595.077683101595</v>
       </c>
       <c r="AD11" t="n">
-        <v>1885211.898761743</v>
+        <v>2096759.987764036</v>
       </c>
       <c r="AE11" t="n">
-        <v>2579430.089564969</v>
+        <v>2868879.517780914</v>
       </c>
       <c r="AF11" t="n">
         <v>4.203994692398513e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.10833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2333252.902069756</v>
+        <v>2595077.683101595</v>
       </c>
     </row>
     <row r="12">
@@ -50463,28 +50463,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1846.55960486156</v>
+        <v>2058.175013671557</v>
       </c>
       <c r="AB12" t="n">
-        <v>2526.544315831879</v>
+        <v>2816.085853978665</v>
       </c>
       <c r="AC12" t="n">
-        <v>2285.414472356103</v>
+        <v>2547.322572476261</v>
       </c>
       <c r="AD12" t="n">
-        <v>1846559.60486156</v>
+        <v>2058175.013671557</v>
       </c>
       <c r="AE12" t="n">
-        <v>2526544.315831879</v>
+        <v>2816085.853978666</v>
       </c>
       <c r="AF12" t="n">
         <v>4.227918097269896e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>43</v>
+        <v>42.86666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2285414.472356102</v>
+        <v>2547322.572476261</v>
       </c>
     </row>
     <row r="13">
@@ -50569,28 +50569,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1818.535784238548</v>
+        <v>2030.151193048545</v>
       </c>
       <c r="AB13" t="n">
-        <v>2488.200888131763</v>
+        <v>2777.74242627855</v>
       </c>
       <c r="AC13" t="n">
-        <v>2250.730487580347</v>
+        <v>2512.638587700506</v>
       </c>
       <c r="AD13" t="n">
-        <v>1818535.784238548</v>
+        <v>2030151.193048545</v>
       </c>
       <c r="AE13" t="n">
-        <v>2488200.888131763</v>
+        <v>2777742.42627855</v>
       </c>
       <c r="AF13" t="n">
         <v>4.246186879171679e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>43</v>
+        <v>42.68333333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>2250730.487580347</v>
+        <v>2512638.587700506</v>
       </c>
     </row>
     <row r="14">
@@ -50675,28 +50675,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1792.529895095243</v>
+        <v>2004.043818678755</v>
       </c>
       <c r="AB14" t="n">
-        <v>2452.618483307037</v>
+        <v>2742.021164889734</v>
       </c>
       <c r="AC14" t="n">
-        <v>2218.544017531874</v>
+        <v>2480.326513363533</v>
       </c>
       <c r="AD14" t="n">
-        <v>1792529.895095243</v>
+        <v>2004043.818678755</v>
       </c>
       <c r="AE14" t="n">
-        <v>2452618.483307038</v>
+        <v>2742021.164889734</v>
       </c>
       <c r="AF14" t="n">
         <v>4.264890632071124e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>43</v>
+        <v>42.49583333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2218544.017531875</v>
+        <v>2480326.513363533</v>
       </c>
     </row>
     <row r="15">
@@ -50781,28 +50781,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1776.056522638072</v>
+        <v>1987.570446221584</v>
       </c>
       <c r="AB15" t="n">
-        <v>2430.078888357235</v>
+        <v>2719.481569939932</v>
       </c>
       <c r="AC15" t="n">
-        <v>2198.155569889561</v>
+        <v>2459.93806572122</v>
       </c>
       <c r="AD15" t="n">
-        <v>1776056.522638072</v>
+        <v>1987570.446221584</v>
       </c>
       <c r="AE15" t="n">
-        <v>2430078.888357236</v>
+        <v>2719481.569939932</v>
       </c>
       <c r="AF15" t="n">
         <v>4.274894965017339e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>43</v>
+        <v>42.4</v>
       </c>
       <c r="AH15" t="n">
-        <v>2198155.569889561</v>
+        <v>2459938.06572122</v>
       </c>
     </row>
     <row r="16">
@@ -50887,28 +50887,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1777.030955423142</v>
+        <v>1988.544879006655</v>
       </c>
       <c r="AB16" t="n">
-        <v>2431.412150282709</v>
+        <v>2720.814831865406</v>
       </c>
       <c r="AC16" t="n">
-        <v>2199.361587168112</v>
+        <v>2461.144082999771</v>
       </c>
       <c r="AD16" t="n">
-        <v>1777030.955423142</v>
+        <v>1988544.879006655</v>
       </c>
       <c r="AE16" t="n">
-        <v>2431412.150282709</v>
+        <v>2720814.831865406</v>
       </c>
       <c r="AF16" t="n">
         <v>4.278374732998631e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>43</v>
+        <v>42.3625</v>
       </c>
       <c r="AH16" t="n">
-        <v>2199361.587168112</v>
+        <v>2461144.082999771</v>
       </c>
     </row>
   </sheetData>
@@ -51184,28 +51184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9621.677438926808</v>
+        <v>10166.77518965744</v>
       </c>
       <c r="AB2" t="n">
-        <v>13164.80355039083</v>
+        <v>13910.63034095606</v>
       </c>
       <c r="AC2" t="n">
-        <v>11908.37317645886</v>
+        <v>12583.01930490699</v>
       </c>
       <c r="AD2" t="n">
-        <v>9621677.438926809</v>
+        <v>10166775.18965744</v>
       </c>
       <c r="AE2" t="n">
-        <v>13164803.55039083</v>
+        <v>13910630.34095606</v>
       </c>
       <c r="AF2" t="n">
         <v>1.52027228622067e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>108</v>
+        <v>107.7166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>11908373.17645886</v>
+        <v>12583019.30490699</v>
       </c>
     </row>
     <row r="3">
@@ -51290,28 +51290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3806.354352309674</v>
+        <v>4117.84854284683</v>
       </c>
       <c r="AB3" t="n">
-        <v>5208.021949332901</v>
+        <v>5634.222042979676</v>
       </c>
       <c r="AC3" t="n">
-        <v>4710.975643993086</v>
+        <v>5096.499798877786</v>
       </c>
       <c r="AD3" t="n">
-        <v>3806354.352309674</v>
+        <v>4117848.54284683</v>
       </c>
       <c r="AE3" t="n">
-        <v>5208021.949332901</v>
+        <v>5634222.042979676</v>
       </c>
       <c r="AF3" t="n">
         <v>2.659297385876178e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>62</v>
+        <v>61.57916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>4710975.643993086</v>
+        <v>5096499.798877786</v>
       </c>
     </row>
     <row r="4">
@@ -51396,28 +51396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3023.074681348904</v>
+        <v>3285.854073532336</v>
       </c>
       <c r="AB4" t="n">
-        <v>4136.304147664062</v>
+        <v>4495.850505058044</v>
       </c>
       <c r="AC4" t="n">
-        <v>3741.541085150179</v>
+        <v>4066.77284282095</v>
       </c>
       <c r="AD4" t="n">
-        <v>3023074.681348904</v>
+        <v>3285854.073532336</v>
       </c>
       <c r="AE4" t="n">
-        <v>4136304.147664062</v>
+        <v>4495850.505058045</v>
       </c>
       <c r="AF4" t="n">
         <v>3.079455367771187e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.17916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3741541.085150179</v>
+        <v>4066772.84282095</v>
       </c>
     </row>
     <row r="5">
@@ -51502,28 +51502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2706.36659625596</v>
+        <v>2959.442814035358</v>
       </c>
       <c r="AB5" t="n">
-        <v>3702.970173465264</v>
+        <v>4049.240219565801</v>
       </c>
       <c r="AC5" t="n">
-        <v>3349.563897260879</v>
+        <v>3662.786416154629</v>
       </c>
       <c r="AD5" t="n">
-        <v>2706366.59625596</v>
+        <v>2959442.814035357</v>
       </c>
       <c r="AE5" t="n">
-        <v>3702970.173465264</v>
+        <v>4049240.2195658</v>
       </c>
       <c r="AF5" t="n">
         <v>3.299556836303653e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.63333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3349563.897260879</v>
+        <v>3662786.416154629</v>
       </c>
     </row>
     <row r="6">
@@ -51608,28 +51608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2533.293636595837</v>
+        <v>2776.633525582274</v>
       </c>
       <c r="AB6" t="n">
-        <v>3466.164114618172</v>
+        <v>3799.11248612767</v>
       </c>
       <c r="AC6" t="n">
-        <v>3135.358276310772</v>
+        <v>3436.530522539364</v>
       </c>
       <c r="AD6" t="n">
-        <v>2533293.636595837</v>
+        <v>2776633.525582274</v>
       </c>
       <c r="AE6" t="n">
-        <v>3466164.114618172</v>
+        <v>3799112.48612767</v>
       </c>
       <c r="AF6" t="n">
         <v>3.437513292473109e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.6375</v>
       </c>
       <c r="AH6" t="n">
-        <v>3135358.276310772</v>
+        <v>3436530.522539365</v>
       </c>
     </row>
     <row r="7">
@@ -51714,28 +51714,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2425.222044054528</v>
+        <v>2658.7582844403</v>
       </c>
       <c r="AB7" t="n">
-        <v>3318.295793920973</v>
+        <v>3637.83038090859</v>
       </c>
       <c r="AC7" t="n">
-        <v>3001.602300606428</v>
+        <v>3290.640955081544</v>
       </c>
       <c r="AD7" t="n">
-        <v>2425222.044054528</v>
+        <v>2658758.2844403</v>
       </c>
       <c r="AE7" t="n">
-        <v>3318295.793920973</v>
+        <v>3637830.38090859</v>
       </c>
       <c r="AF7" t="n">
         <v>3.531056416599406e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.37916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>3001602.300606428</v>
+        <v>3290640.955081544</v>
       </c>
     </row>
     <row r="8">
@@ -51820,28 +51820,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2343.438168936712</v>
+        <v>2567.272245948304</v>
       </c>
       <c r="AB8" t="n">
-        <v>3206.395487934844</v>
+        <v>3512.655146964668</v>
       </c>
       <c r="AC8" t="n">
-        <v>2900.381602770553</v>
+        <v>3177.412269780691</v>
       </c>
       <c r="AD8" t="n">
-        <v>2343438.168936712</v>
+        <v>2567272.245948304</v>
       </c>
       <c r="AE8" t="n">
-        <v>3206395.487934844</v>
+        <v>3512655.146964668</v>
       </c>
       <c r="AF8" t="n">
         <v>3.601017240525797e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.47916666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>2900381.602770553</v>
+        <v>3177412.269780691</v>
       </c>
     </row>
     <row r="9">
@@ -51926,28 +51926,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2278.201521976701</v>
+        <v>2502.102918795999</v>
       </c>
       <c r="AB9" t="n">
-        <v>3117.135829526411</v>
+        <v>3423.487598487077</v>
       </c>
       <c r="AC9" t="n">
-        <v>2819.640760883907</v>
+        <v>3096.754746982363</v>
       </c>
       <c r="AD9" t="n">
-        <v>2278201.521976701</v>
+        <v>2502102.918795999</v>
       </c>
       <c r="AE9" t="n">
-        <v>3117135.829526411</v>
+        <v>3423487.598487077</v>
       </c>
       <c r="AF9" t="n">
         <v>3.654077415975588e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.81666666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>2819640.760883907</v>
+        <v>3096754.746982364</v>
       </c>
     </row>
     <row r="10">
@@ -52032,28 +52032,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2237.681172954525</v>
+        <v>2461.481084547337</v>
       </c>
       <c r="AB10" t="n">
-        <v>3061.694100362632</v>
+        <v>3367.907012759209</v>
       </c>
       <c r="AC10" t="n">
-        <v>2769.490312538565</v>
+        <v>3046.478694348522</v>
       </c>
       <c r="AD10" t="n">
-        <v>2237681.172954525</v>
+        <v>2461481.084547337</v>
       </c>
       <c r="AE10" t="n">
-        <v>3061694.100362632</v>
+        <v>3367907.012759209</v>
       </c>
       <c r="AF10" t="n">
         <v>3.692202134632104e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.35416666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2769490.312538565</v>
+        <v>3046478.694348522</v>
       </c>
     </row>
     <row r="11">
@@ -52138,28 +52138,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2193.812313862865</v>
+        <v>2417.679545263381</v>
       </c>
       <c r="AB11" t="n">
-        <v>3001.670791995946</v>
+        <v>3307.975814323365</v>
       </c>
       <c r="AC11" t="n">
-        <v>2715.195544479156</v>
+        <v>2992.267245377433</v>
       </c>
       <c r="AD11" t="n">
-        <v>2193812.313862865</v>
+        <v>2417679.545263381</v>
       </c>
       <c r="AE11" t="n">
-        <v>3001670.791995946</v>
+        <v>3307975.814323365</v>
       </c>
       <c r="AF11" t="n">
         <v>3.722466086555318e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.99166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2715195.544479156</v>
+        <v>2992267.245377433</v>
       </c>
     </row>
     <row r="12">
@@ -52244,28 +52244,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2160.51631459604</v>
+        <v>2384.38354599656</v>
       </c>
       <c r="AB12" t="n">
-        <v>2956.113736883089</v>
+        <v>3262.41875921068</v>
       </c>
       <c r="AC12" t="n">
-        <v>2673.986390766654</v>
+        <v>2951.058091664976</v>
       </c>
       <c r="AD12" t="n">
-        <v>2160516.31459604</v>
+        <v>2384383.54599656</v>
       </c>
       <c r="AE12" t="n">
-        <v>2956113.736883089</v>
+        <v>3262418.75921068</v>
       </c>
       <c r="AF12" t="n">
         <v>3.752337000141867e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.64583333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>2673986.390766654</v>
+        <v>2951058.091664976</v>
       </c>
     </row>
     <row r="13">
@@ -52350,28 +52350,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2132.805886488035</v>
+        <v>2346.90363470667</v>
       </c>
       <c r="AB13" t="n">
-        <v>2918.199106647907</v>
+        <v>3211.137091086862</v>
       </c>
       <c r="AC13" t="n">
-        <v>2639.6902796276</v>
+        <v>2904.670673972623</v>
       </c>
       <c r="AD13" t="n">
-        <v>2132805.886488034</v>
+        <v>2346903.63470667</v>
       </c>
       <c r="AE13" t="n">
-        <v>2918199.106647907</v>
+        <v>3211137.091086862</v>
       </c>
       <c r="AF13" t="n">
         <v>3.774347146995114e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.3875</v>
       </c>
       <c r="AH13" t="n">
-        <v>2639690.2796276</v>
+        <v>2904670.673972623</v>
       </c>
     </row>
     <row r="14">
@@ -52456,28 +52456,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2108.606706695471</v>
+        <v>2322.704454914107</v>
       </c>
       <c r="AB14" t="n">
-        <v>2885.088721263256</v>
+        <v>3178.026705702209</v>
       </c>
       <c r="AC14" t="n">
-        <v>2609.739902953342</v>
+        <v>2874.720297298366</v>
       </c>
       <c r="AD14" t="n">
-        <v>2108606.706695471</v>
+        <v>2322704.454914107</v>
       </c>
       <c r="AE14" t="n">
-        <v>2885088.721263256</v>
+        <v>3178026.705702209</v>
       </c>
       <c r="AF14" t="n">
         <v>3.793606025491704e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>44</v>
+        <v>43.16666666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>2609739.902953342</v>
+        <v>2874720.297298366</v>
       </c>
     </row>
     <row r="15">
@@ -52562,28 +52562,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2076.328158445562</v>
+        <v>2300.161224427301</v>
       </c>
       <c r="AB15" t="n">
-        <v>2840.923787518685</v>
+        <v>3147.182063213021</v>
       </c>
       <c r="AC15" t="n">
-        <v>2569.790008499479</v>
+        <v>2846.819424197619</v>
       </c>
       <c r="AD15" t="n">
-        <v>2076328.158445562</v>
+        <v>2300161.224427301</v>
       </c>
       <c r="AE15" t="n">
-        <v>2840923.787518685</v>
+        <v>3147182.063213021</v>
       </c>
       <c r="AF15" t="n">
         <v>3.809327558958308e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>43</v>
+        <v>42.99166666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2569790.008499479</v>
+        <v>2846819.424197619</v>
       </c>
     </row>
     <row r="16">
@@ -52668,28 +52668,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2054.934972916717</v>
+        <v>2269.100040943057</v>
       </c>
       <c r="AB16" t="n">
-        <v>2811.652687277383</v>
+        <v>3104.682781647174</v>
       </c>
       <c r="AC16" t="n">
-        <v>2543.31250098296</v>
+        <v>2808.376214416302</v>
       </c>
       <c r="AD16" t="n">
-        <v>2054934.972916717</v>
+        <v>2269100.040943057</v>
       </c>
       <c r="AE16" t="n">
-        <v>2811652.687277383</v>
+        <v>3104682.781647174</v>
       </c>
       <c r="AF16" t="n">
         <v>3.823869977414918e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>43</v>
+        <v>42.82916666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>2543312.50098296</v>
+        <v>2808376.214416301</v>
       </c>
     </row>
     <row r="17">
@@ -52774,28 +52774,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2035.217776585841</v>
+        <v>2249.382844612181</v>
       </c>
       <c r="AB17" t="n">
-        <v>2784.674749396168</v>
+        <v>3077.704843765957</v>
       </c>
       <c r="AC17" t="n">
-        <v>2518.909299629355</v>
+        <v>2783.973013062696</v>
       </c>
       <c r="AD17" t="n">
-        <v>2035217.776585841</v>
+        <v>2249382.844612181</v>
       </c>
       <c r="AE17" t="n">
-        <v>2784674.749396169</v>
+        <v>3077704.843765957</v>
       </c>
       <c r="AF17" t="n">
         <v>3.836054165851537e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>43</v>
+        <v>42.69166666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>2518909.299629355</v>
+        <v>2783973.013062696</v>
       </c>
     </row>
     <row r="18">
@@ -52880,28 +52880,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2014.864053780218</v>
+        <v>2229.029121806558</v>
       </c>
       <c r="AB18" t="n">
-        <v>2756.825887910638</v>
+        <v>3049.855982280427</v>
       </c>
       <c r="AC18" t="n">
-        <v>2493.718294397881</v>
+        <v>2758.782007831222</v>
       </c>
       <c r="AD18" t="n">
-        <v>2014864.053780218</v>
+        <v>2229029.121806558</v>
       </c>
       <c r="AE18" t="n">
-        <v>2756825.887910638</v>
+        <v>3049855.982280427</v>
       </c>
       <c r="AF18" t="n">
         <v>3.849024430961486e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>43</v>
+        <v>42.55</v>
       </c>
       <c r="AH18" t="n">
-        <v>2493718.294397881</v>
+        <v>2758782.007831222</v>
       </c>
     </row>
     <row r="19">
@@ -52986,28 +52986,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1996.753178815276</v>
+        <v>2210.816761615131</v>
       </c>
       <c r="AB19" t="n">
-        <v>2732.045789788192</v>
+        <v>3024.937027593889</v>
       </c>
       <c r="AC19" t="n">
-        <v>2471.303174061156</v>
+        <v>2736.241283205997</v>
       </c>
       <c r="AD19" t="n">
-        <v>1996753.178815276</v>
+        <v>2210816.761615132</v>
       </c>
       <c r="AE19" t="n">
-        <v>2732045.789788193</v>
+        <v>3024937.027593889</v>
       </c>
       <c r="AF19" t="n">
         <v>3.857278236031453e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>43</v>
+        <v>42.45833333333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>2471303.174061156</v>
+        <v>2736241.283205997</v>
       </c>
     </row>
     <row r="20">
@@ -53092,28 +53092,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1978.553833485939</v>
+        <v>2192.617416285794</v>
       </c>
       <c r="AB20" t="n">
-        <v>2707.144642610142</v>
+        <v>3000.035880415838</v>
       </c>
       <c r="AC20" t="n">
-        <v>2448.7785574208</v>
+        <v>2713.71666656564</v>
       </c>
       <c r="AD20" t="n">
-        <v>1978553.833485939</v>
+        <v>2192617.416285794</v>
       </c>
       <c r="AE20" t="n">
-        <v>2707144.642610142</v>
+        <v>3000035.880415838</v>
       </c>
       <c r="AF20" t="n">
         <v>3.867497232784746e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>43</v>
+        <v>42.34583333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>2448778.5574208</v>
+        <v>2713716.66656564</v>
       </c>
     </row>
     <row r="21">
@@ -53198,28 +53198,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1960.017739028984</v>
+        <v>2174.081321828837</v>
       </c>
       <c r="AB21" t="n">
-        <v>2681.782740419364</v>
+        <v>2974.673978224884</v>
       </c>
       <c r="AC21" t="n">
-        <v>2425.837159579456</v>
+        <v>2690.77526872425</v>
       </c>
       <c r="AD21" t="n">
-        <v>1960017.739028984</v>
+        <v>2174081.321828837</v>
       </c>
       <c r="AE21" t="n">
-        <v>2681782.740419364</v>
+        <v>2974673.978224884</v>
       </c>
       <c r="AF21" t="n">
         <v>3.875751037854713e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>43</v>
+        <v>42.25416666666666</v>
       </c>
       <c r="AH21" t="n">
-        <v>2425837.159579455</v>
+        <v>2690775.26872425</v>
       </c>
     </row>
     <row r="22">
@@ -53304,28 +53304,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1955.777386094168</v>
+        <v>2160.172970938622</v>
       </c>
       <c r="AB22" t="n">
-        <v>2675.98090246278</v>
+        <v>2955.643958943756</v>
       </c>
       <c r="AC22" t="n">
-        <v>2420.589040894517</v>
+        <v>2673.561447774513</v>
       </c>
       <c r="AD22" t="n">
-        <v>1955777.386094168</v>
+        <v>2160172.970938622</v>
       </c>
       <c r="AE22" t="n">
-        <v>2675980.90246278</v>
+        <v>2955643.958943756</v>
       </c>
       <c r="AF22" t="n">
         <v>3.878502306211369e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>43</v>
+        <v>42.225</v>
       </c>
       <c r="AH22" t="n">
-        <v>2420589.040894517</v>
+        <v>2673561.447774514</v>
       </c>
     </row>
     <row r="23">
@@ -53410,28 +53410,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1961.336647575083</v>
+        <v>2165.732232419537</v>
       </c>
       <c r="AB23" t="n">
-        <v>2683.587329278275</v>
+        <v>2963.250385759251</v>
       </c>
       <c r="AC23" t="n">
-        <v>2427.469521010428</v>
+        <v>2680.441927890425</v>
       </c>
       <c r="AD23" t="n">
-        <v>1961336.647575083</v>
+        <v>2165732.232419537</v>
       </c>
       <c r="AE23" t="n">
-        <v>2683587.329278275</v>
+        <v>2963250.385759251</v>
       </c>
       <c r="AF23" t="n">
         <v>3.877323191201374e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>43</v>
+        <v>42.2375</v>
       </c>
       <c r="AH23" t="n">
-        <v>2427469.521010428</v>
+        <v>2680441.927890425</v>
       </c>
     </row>
   </sheetData>
@@ -53707,28 +53707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1092.102825185546</v>
+        <v>1317.810393710194</v>
       </c>
       <c r="AB2" t="n">
-        <v>1494.263265595125</v>
+        <v>1803.086318365705</v>
       </c>
       <c r="AC2" t="n">
-        <v>1351.652876738391</v>
+        <v>1631.002290788424</v>
       </c>
       <c r="AD2" t="n">
-        <v>1092102.825185546</v>
+        <v>1317810.393710194</v>
       </c>
       <c r="AE2" t="n">
-        <v>1494263.265595125</v>
+        <v>1803086.318365705</v>
       </c>
       <c r="AF2" t="n">
         <v>8.155757192675909e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.71666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1351652.876738391</v>
+        <v>1631002.290788424</v>
       </c>
     </row>
   </sheetData>
@@ -54004,28 +54004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3451.724706879694</v>
+        <v>3782.063665933656</v>
       </c>
       <c r="AB2" t="n">
-        <v>4722.802023299798</v>
+        <v>5174.78636060378</v>
       </c>
       <c r="AC2" t="n">
-        <v>4272.064426690156</v>
+        <v>4680.912013205831</v>
       </c>
       <c r="AD2" t="n">
-        <v>3451724.706879694</v>
+        <v>3782063.665933656</v>
       </c>
       <c r="AE2" t="n">
-        <v>4722802.023299797</v>
+        <v>5174786.36060378</v>
       </c>
       <c r="AF2" t="n">
         <v>3.214104776060529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.3875</v>
       </c>
       <c r="AH2" t="n">
-        <v>4272064.426690157</v>
+        <v>4680912.013205832</v>
       </c>
     </row>
     <row r="3">
@@ -54110,28 +54110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2161.561758034117</v>
+        <v>2416.42317401167</v>
       </c>
       <c r="AB3" t="n">
-        <v>2957.544158716775</v>
+        <v>3306.256791749585</v>
       </c>
       <c r="AC3" t="n">
-        <v>2675.280295148142</v>
+        <v>2990.712283905432</v>
       </c>
       <c r="AD3" t="n">
-        <v>2161561.758034117</v>
+        <v>2416423.17401167</v>
       </c>
       <c r="AE3" t="n">
-        <v>2957544.158716775</v>
+        <v>3306256.791749585</v>
       </c>
       <c r="AF3" t="n">
         <v>4.257402250676975e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2675280.295148142</v>
+        <v>2990712.283905432</v>
       </c>
     </row>
     <row r="4">
@@ -54216,28 +54216,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1877.560180632544</v>
+        <v>2113.535380889065</v>
       </c>
       <c r="AB4" t="n">
-        <v>2568.960671250619</v>
+        <v>2891.83235073269</v>
       </c>
       <c r="AC4" t="n">
-        <v>2323.782670345407</v>
+        <v>2615.839929890958</v>
       </c>
       <c r="AD4" t="n">
-        <v>1877560.180632544</v>
+        <v>2113535.380889065</v>
       </c>
       <c r="AE4" t="n">
-        <v>2568960.671250619</v>
+        <v>2891832.350732691</v>
       </c>
       <c r="AF4" t="n">
         <v>4.620243126253596e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.87916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2323782.670345407</v>
+        <v>2615839.929890958</v>
       </c>
     </row>
     <row r="5">
@@ -54322,28 +54322,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1751.820266980987</v>
+        <v>1968.910262546336</v>
       </c>
       <c r="AB5" t="n">
-        <v>2396.917774139074</v>
+        <v>2693.949883406255</v>
       </c>
       <c r="AC5" t="n">
-        <v>2168.159305870465</v>
+        <v>2436.843087516369</v>
       </c>
       <c r="AD5" t="n">
-        <v>1751820.266980987</v>
+        <v>1968910.262546336</v>
       </c>
       <c r="AE5" t="n">
-        <v>2396917.774139074</v>
+        <v>2693949.883406254</v>
       </c>
       <c r="AF5" t="n">
         <v>4.802703222711181e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.09583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2168159.305870465</v>
+        <v>2436843.087516369</v>
       </c>
     </row>
     <row r="6">
@@ -54428,28 +54428,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1665.059430705725</v>
+        <v>1872.740483829341</v>
       </c>
       <c r="AB6" t="n">
-        <v>2278.207770329304</v>
+        <v>2562.36614945446</v>
       </c>
       <c r="AC6" t="n">
-        <v>2060.778818213763</v>
+        <v>2317.817520454003</v>
       </c>
       <c r="AD6" t="n">
-        <v>1665059.430705725</v>
+        <v>1872740.483829341</v>
       </c>
       <c r="AE6" t="n">
-        <v>2278207.770329305</v>
+        <v>2562366.14945446</v>
       </c>
       <c r="AF6" t="n">
         <v>4.918105335000593e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.04166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2060778.818213763</v>
+        <v>2317817.520454003</v>
       </c>
     </row>
     <row r="7">
@@ -54534,28 +54534,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1598.852627352199</v>
+        <v>1806.499515057033</v>
       </c>
       <c r="AB7" t="n">
-        <v>2187.620701142988</v>
+        <v>2471.732333634896</v>
       </c>
       <c r="AC7" t="n">
-        <v>1978.837251770838</v>
+        <v>2235.833668810898</v>
       </c>
       <c r="AD7" t="n">
-        <v>1598852.627352199</v>
+        <v>1806499.515057033</v>
       </c>
       <c r="AE7" t="n">
-        <v>2187620.701142988</v>
+        <v>2471732.333634896</v>
       </c>
       <c r="AF7" t="n">
         <v>4.994000417857594e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.37083333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1978837.251770838</v>
+        <v>2235833.668810898</v>
       </c>
     </row>
     <row r="8">
@@ -54640,28 +54640,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1541.719775585421</v>
+        <v>1758.808760120913</v>
       </c>
       <c r="AB8" t="n">
-        <v>2109.449012832153</v>
+        <v>2406.479738763679</v>
       </c>
       <c r="AC8" t="n">
-        <v>1908.126159677736</v>
+        <v>2176.808690011599</v>
       </c>
       <c r="AD8" t="n">
-        <v>1541719.775585421</v>
+        <v>1758808.760120913</v>
       </c>
       <c r="AE8" t="n">
-        <v>2109449.012832153</v>
+        <v>2406479.738763679</v>
       </c>
       <c r="AF8" t="n">
         <v>5.048582497994478e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>43</v>
+        <v>42.90416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1908126.159677736</v>
+        <v>2176808.690011599</v>
       </c>
     </row>
     <row r="9">
@@ -54746,28 +54746,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1540.116028882141</v>
+        <v>1747.83023639468</v>
       </c>
       <c r="AB9" t="n">
-        <v>2107.254695840414</v>
+        <v>2391.458438263163</v>
       </c>
       <c r="AC9" t="n">
-        <v>1906.141265219945</v>
+        <v>2163.221001348325</v>
       </c>
       <c r="AD9" t="n">
-        <v>1540116.028882141</v>
+        <v>1747830.23639468</v>
       </c>
       <c r="AE9" t="n">
-        <v>2107254.695840414</v>
+        <v>2391458.438263163</v>
       </c>
       <c r="AF9" t="n">
         <v>5.053780791340848e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>43</v>
+        <v>42.85833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1906141.265219945</v>
+        <v>2163221.001348325</v>
       </c>
     </row>
   </sheetData>
@@ -55043,28 +55043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4860.220018484079</v>
+        <v>5251.836222722965</v>
       </c>
       <c r="AB2" t="n">
-        <v>6649.967447064665</v>
+        <v>7185.79401459193</v>
       </c>
       <c r="AC2" t="n">
-        <v>6015.303887204493</v>
+        <v>6499.991919164246</v>
       </c>
       <c r="AD2" t="n">
-        <v>4860220.018484078</v>
+        <v>5251836.222722964</v>
       </c>
       <c r="AE2" t="n">
-        <v>6649967.447064665</v>
+        <v>7185794.01459193</v>
       </c>
       <c r="AF2" t="n">
         <v>2.473145504018953e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>78</v>
+        <v>77.98333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6015303.887204492</v>
+        <v>6499991.919164246</v>
       </c>
     </row>
     <row r="3">
@@ -55149,28 +55149,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2675.115723082217</v>
+        <v>2942.518615012373</v>
       </c>
       <c r="AB3" t="n">
-        <v>3660.211350097726</v>
+        <v>4026.083783819588</v>
       </c>
       <c r="AC3" t="n">
-        <v>3310.885915983155</v>
+        <v>3641.839998135775</v>
       </c>
       <c r="AD3" t="n">
-        <v>2675115.723082217</v>
+        <v>2942518.615012373</v>
       </c>
       <c r="AE3" t="n">
-        <v>3660211.350097726</v>
+        <v>4026083.783819588</v>
       </c>
       <c r="AF3" t="n">
         <v>3.557663549296214e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.20833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3310885.915983154</v>
+        <v>3641839.998135775</v>
       </c>
     </row>
     <row r="4">
@@ -55255,28 +55255,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2252.702063230324</v>
+        <v>2501.028213651158</v>
       </c>
       <c r="AB4" t="n">
-        <v>3082.246345112891</v>
+        <v>3422.017139495261</v>
       </c>
       <c r="AC4" t="n">
-        <v>2788.081079895115</v>
+        <v>3095.424626532924</v>
       </c>
       <c r="AD4" t="n">
-        <v>2252702.063230324</v>
+        <v>2501028.213651158</v>
       </c>
       <c r="AE4" t="n">
-        <v>3082246.345112891</v>
+        <v>3422017.139495261</v>
       </c>
       <c r="AF4" t="n">
         <v>3.943701982826404e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="AH4" t="n">
-        <v>2788081.079895115</v>
+        <v>3095424.626532924</v>
       </c>
     </row>
     <row r="5">
@@ -55361,28 +55361,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2072.869138363601</v>
+        <v>2302.153723723756</v>
       </c>
       <c r="AB5" t="n">
-        <v>2836.19100364135</v>
+        <v>3149.908288653296</v>
       </c>
       <c r="AC5" t="n">
-        <v>2565.508914872893</v>
+        <v>2849.285462508156</v>
       </c>
       <c r="AD5" t="n">
-        <v>2072869.138363601</v>
+        <v>2302153.723723756</v>
       </c>
       <c r="AE5" t="n">
-        <v>2836191.00364135</v>
+        <v>3149908.288653296</v>
       </c>
       <c r="AF5" t="n">
         <v>4.143201461065627e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.55</v>
       </c>
       <c r="AH5" t="n">
-        <v>2565508.914872893</v>
+        <v>2849285.462508156</v>
       </c>
     </row>
     <row r="6">
@@ -55467,28 +55467,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1969.196320088554</v>
+        <v>2188.858637691879</v>
       </c>
       <c r="AB6" t="n">
-        <v>2694.341279955485</v>
+        <v>2994.892953717863</v>
       </c>
       <c r="AC6" t="n">
-        <v>2437.19712972827</v>
+        <v>2709.06457357369</v>
       </c>
       <c r="AD6" t="n">
-        <v>1969196.320088554</v>
+        <v>2188858.637691879</v>
       </c>
       <c r="AE6" t="n">
-        <v>2694341.279955485</v>
+        <v>2994892.953717863</v>
       </c>
       <c r="AF6" t="n">
         <v>4.264937801615315e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.225</v>
       </c>
       <c r="AH6" t="n">
-        <v>2437197.12972827</v>
+        <v>2709064.57357369</v>
       </c>
     </row>
     <row r="7">
@@ -55573,28 +55573,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1893.391298514521</v>
+        <v>2113.019450699066</v>
       </c>
       <c r="AB7" t="n">
-        <v>2590.621505156369</v>
+        <v>2891.1264322855</v>
       </c>
       <c r="AC7" t="n">
-        <v>2343.376224664364</v>
+        <v>2615.201383309603</v>
       </c>
       <c r="AD7" t="n">
-        <v>1893391.298514521</v>
+        <v>2113019.450699066</v>
       </c>
       <c r="AE7" t="n">
-        <v>2590621.505156369</v>
+        <v>2891126.4322855</v>
       </c>
       <c r="AF7" t="n">
         <v>4.346403945861494e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.37083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2343376.224664364</v>
+        <v>2615201.383309604</v>
       </c>
     </row>
     <row r="8">
@@ -55679,28 +55679,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1833.155926778323</v>
+        <v>2052.851398770572</v>
       </c>
       <c r="AB8" t="n">
-        <v>2508.204812149852</v>
+        <v>2808.801849209824</v>
       </c>
       <c r="AC8" t="n">
-        <v>2268.825265165833</v>
+        <v>2540.733742899393</v>
       </c>
       <c r="AD8" t="n">
-        <v>1833155.926778323</v>
+        <v>2052851.398770572</v>
       </c>
       <c r="AE8" t="n">
-        <v>2508204.812149852</v>
+        <v>2808801.849209824</v>
       </c>
       <c r="AF8" t="n">
         <v>4.405652050767807e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.77916666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>2268825.265165833</v>
+        <v>2540733.742899393</v>
       </c>
     </row>
     <row r="9">
@@ -55785,28 +55785,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1790.364644491493</v>
+        <v>2000.472014145696</v>
       </c>
       <c r="AB9" t="n">
-        <v>2449.655891906873</v>
+        <v>2737.134064350709</v>
       </c>
       <c r="AC9" t="n">
-        <v>2215.864171696918</v>
+        <v>2475.905830840863</v>
       </c>
       <c r="AD9" t="n">
-        <v>1790364.644491493</v>
+        <v>2000472.014145697</v>
       </c>
       <c r="AE9" t="n">
-        <v>2449655.891906872</v>
+        <v>2737134.064350709</v>
       </c>
       <c r="AF9" t="n">
         <v>4.451939632725863e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.325</v>
       </c>
       <c r="AH9" t="n">
-        <v>2215864.171696918</v>
+        <v>2475905.830840863</v>
       </c>
     </row>
     <row r="10">
@@ -55891,28 +55891,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1743.013786779507</v>
+        <v>1962.675093352975</v>
       </c>
       <c r="AB10" t="n">
-        <v>2384.868359412922</v>
+        <v>2685.418649839646</v>
       </c>
       <c r="AC10" t="n">
-        <v>2157.259870374317</v>
+        <v>2429.126062907697</v>
       </c>
       <c r="AD10" t="n">
-        <v>1743013.786779507</v>
+        <v>1962675.093352975</v>
       </c>
       <c r="AE10" t="n">
-        <v>2384868.359412922</v>
+        <v>2685418.649839646</v>
       </c>
       <c r="AF10" t="n">
         <v>4.487581070833567e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>43</v>
+        <v>42.97916666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2157259.870374317</v>
+        <v>2429126.062907697</v>
       </c>
     </row>
     <row r="11">
@@ -55997,28 +55997,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1708.641444194353</v>
+        <v>1918.816133656261</v>
       </c>
       <c r="AB11" t="n">
-        <v>2337.838603887183</v>
+        <v>2625.408886261861</v>
       </c>
       <c r="AC11" t="n">
-        <v>2114.718568709277</v>
+        <v>2374.843546941543</v>
       </c>
       <c r="AD11" t="n">
-        <v>1708641.444194353</v>
+        <v>1918816.133656261</v>
       </c>
       <c r="AE11" t="n">
-        <v>2337838.603887183</v>
+        <v>2625408.88626186</v>
       </c>
       <c r="AF11" t="n">
         <v>4.516742247467142e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>43</v>
+        <v>42.7</v>
       </c>
       <c r="AH11" t="n">
-        <v>2114718.568709278</v>
+        <v>2374843.546941543</v>
       </c>
     </row>
     <row r="12">
@@ -56103,28 +56103,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1682.338655714511</v>
+        <v>1892.411859949933</v>
       </c>
       <c r="AB12" t="n">
-        <v>2301.849968291932</v>
+        <v>2589.28139410252</v>
       </c>
       <c r="AC12" t="n">
-        <v>2082.16463798487</v>
+        <v>2342.164011928636</v>
       </c>
       <c r="AD12" t="n">
-        <v>1682338.655714511</v>
+        <v>1892411.859949933</v>
       </c>
       <c r="AE12" t="n">
-        <v>2301849.968291932</v>
+        <v>2589281.39410252</v>
       </c>
       <c r="AF12" t="n">
         <v>4.538034535167848e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>43</v>
+        <v>42.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>2082164.63798487</v>
+        <v>2342164.011928636</v>
       </c>
     </row>
     <row r="13">
@@ -56209,28 +56209,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1685.290429113352</v>
+        <v>1895.363633348775</v>
       </c>
       <c r="AB13" t="n">
-        <v>2305.888714879277</v>
+        <v>2593.320140689866</v>
       </c>
       <c r="AC13" t="n">
-        <v>2085.817932266336</v>
+        <v>2345.817306210102</v>
       </c>
       <c r="AD13" t="n">
-        <v>1685290.429113352</v>
+        <v>1895363.633348775</v>
       </c>
       <c r="AE13" t="n">
-        <v>2305888.714879277</v>
+        <v>2593320.140689866</v>
       </c>
       <c r="AF13" t="n">
         <v>4.538034535167848e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>43</v>
+        <v>42.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>2085817.932266336</v>
+        <v>2345817.306210102</v>
       </c>
     </row>
   </sheetData>
